--- a/output7/【河洛文讀注音-閩拼調號】《_working》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《_working》.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8C837-A8EF-4FB2-9538-5C1BE5BB44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C559AA71-443E-4054-A08E-A7DB941DF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="122" r:id="rId3"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId3"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId4"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1169">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4011,1132 +4009,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《</t>
-  </si>
-  <si>
-    <t>父</t>
-  </si>
-  <si>
-    <t>》</t>
-  </si>
-  <si>
-    <t>屈</t>
-  </si>
-  <si>
-    <t>原</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>放</t>
-  </si>
-  <si>
-    <t>潭</t>
-  </si>
-  <si>
-    <t>吟</t>
-  </si>
-  <si>
-    <t>澤</t>
-  </si>
-  <si>
-    <t>畔</t>
-  </si>
-  <si>
-    <t>顏</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>憔</t>
-  </si>
-  <si>
-    <t>悴</t>
-  </si>
-  <si>
-    <t>容</t>
-  </si>
-  <si>
-    <t>枯</t>
-  </si>
-  <si>
-    <t>槁</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>問</t>
-  </si>
-  <si>
-    <t>非</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>閭</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>舉</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>獨</t>
-  </si>
-  <si>
-    <t>清</t>
-  </si>
-  <si>
-    <t>衆</t>
-  </si>
-  <si>
-    <t>醉</t>
-  </si>
-  <si>
-    <t>醒</t>
-  </si>
-  <si>
-    <t>聖</t>
-  </si>
-  <si>
-    <t>凝</t>
-  </si>
-  <si>
-    <t>滯</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>推</t>
-  </si>
-  <si>
-    <t>移</t>
-  </si>
-  <si>
-    <t>淈</t>
-  </si>
-  <si>
-    <t>泥</t>
-  </si>
-  <si>
-    <t>揚</t>
-  </si>
-  <si>
-    <t>餔</t>
-  </si>
-  <si>
-    <t>糟</t>
-  </si>
-  <si>
-    <t>歠</t>
-  </si>
-  <si>
-    <t>釃</t>
-  </si>
-  <si>
-    <t>深</t>
-  </si>
-  <si>
-    <t>思</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>令</t>
-  </si>
-  <si>
-    <t>爲</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>新</t>
-  </si>
-  <si>
-    <t>沐</t>
-  </si>
-  <si>
-    <t>彈</t>
-  </si>
-  <si>
-    <t>冠</t>
-  </si>
-  <si>
-    <t>浴</t>
-  </si>
-  <si>
-    <t>振</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>安</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>察</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>汶</t>
-  </si>
-  <si>
-    <t>寧</t>
-  </si>
-  <si>
-    <t>赴</t>
-  </si>
-  <si>
-    <t>流</t>
-  </si>
-  <si>
-    <t>葬</t>
-  </si>
-  <si>
-    <t>魚</t>
-  </si>
-  <si>
-    <t>腹</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>蒙</t>
-  </si>
-  <si>
-    <t>俗</t>
-  </si>
-  <si>
-    <t>塵</t>
-  </si>
-  <si>
-    <t>埃</t>
-  </si>
-  <si>
-    <t>莞</t>
-  </si>
-  <si>
-    <t>爾</t>
-  </si>
-  <si>
-    <t>笑</t>
-  </si>
-  <si>
-    <t>鼓</t>
-  </si>
-  <si>
-    <t>枻</t>
-  </si>
-  <si>
-    <t>滄</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>兮</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>濯</t>
-  </si>
-  <si>
-    <t>纓</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《漁父》
-屈原既放，游於江潭，行吟澤畔，顏色憔悴，形容枯槁。
-漁父見而問之曰：「子非三閭大夫與？何故至於斯？」
-屈原曰：「舉世皆濁我獨清，衆人皆醉我獨醒，是以見放。」
-漁父曰：「聖人不凝滯於物，而能與世推移。世人皆濁，何不淈其泥而揚其波？衆人皆醉，何不餔其糟而歠其釃？何故深思高舉，自令放爲？」
-屈原曰：「吾聞之，新沐者必彈冠，新浴者必振衣。安能以身之察察，受物之汶汶者乎？寧赴湘流，葬於江魚之腹中，安能以皓皓之白，而蒙世俗之塵埃乎？」
-漁父莞爾而笑，鼓枻而去，歌曰：「滄浪之水清兮，可以濯吾纓；滄浪之水濁兮，可以濯吾足。」
-遂去，不復與言。
-</t>
-  </si>
-  <si>
-    <t>(37, 16)</t>
-  </si>
-  <si>
-    <t>(41, 16)</t>
-  </si>
-  <si>
-    <t>(73, 12)</t>
-  </si>
-  <si>
-    <t>(5, 5); (17, 4); (33, 4); (73, 4)</t>
-  </si>
-  <si>
-    <t>hu2</t>
-  </si>
-  <si>
-    <t>(5, 6); (17, 5); (33, 5); (73, 5)</t>
-  </si>
-  <si>
-    <t>khut4</t>
-  </si>
-  <si>
-    <t>(9, 4); (25, 4); (53, 4)</t>
-  </si>
-  <si>
-    <t>guan5</t>
-  </si>
-  <si>
-    <t>(9, 5); (25, 5); (53, 5)</t>
-  </si>
-  <si>
-    <t>(9, 6)</t>
-  </si>
-  <si>
-    <t>hong3</t>
-  </si>
-  <si>
-    <t>(9, 7); (29, 13); (45, 18)</t>
-  </si>
-  <si>
-    <t>(9, 9)</t>
-  </si>
-  <si>
-    <t>(9, 10); (21, 9); (33, 14); (65, 4)</t>
-  </si>
-  <si>
-    <t>(9, 11); (65, 5)</t>
-  </si>
-  <si>
-    <t>tham5</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>gim5</t>
-  </si>
-  <si>
-    <t>tik8</t>
-  </si>
-  <si>
-    <t>puan7</t>
-  </si>
-  <si>
-    <t>(9, 17)</t>
-  </si>
-  <si>
-    <t>gan5</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>ziau5</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>zui7</t>
-  </si>
-  <si>
-    <t>(13, 7)</t>
-  </si>
-  <si>
-    <t>(13, 9)</t>
-  </si>
-  <si>
-    <t>iong5</t>
-  </si>
-  <si>
-    <t>khoo1</t>
-  </si>
-  <si>
-    <t>(13, 11)</t>
-  </si>
-  <si>
-    <t>kian3</t>
-  </si>
-  <si>
-    <t>(17, 6); (29, 12)</t>
-  </si>
-  <si>
-    <t>(17, 7); (33, 17); (41, 4); (45, 4); (69, 4); (73, 8); (73, 13)</t>
-  </si>
-  <si>
-    <t>bun7</t>
-  </si>
-  <si>
-    <t>(17, 8)</t>
-  </si>
-  <si>
-    <t>(17, 9); (53, 11); (57, 16); (61, 7); (65, 7); (65, 16); (69, 8); (77, 7); (81, 5)</t>
-  </si>
-  <si>
-    <t>(17, 10); (25, 6); (33, 6); (53, 6); (73, 17)</t>
-  </si>
-  <si>
-    <t>sam1</t>
-  </si>
-  <si>
-    <t>(17, 15)</t>
-  </si>
-  <si>
-    <t>lu5</t>
-  </si>
-  <si>
-    <t>(17, 17)</t>
-  </si>
-  <si>
-    <t>(17, 18)</t>
-  </si>
-  <si>
-    <t>(21, 4); (37, 4); (85, 9)</t>
-  </si>
-  <si>
-    <t>(21, 6); (37, 14); (41, 14); (45, 9)</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>(21, 7); (45, 10)</t>
-  </si>
-  <si>
-    <t>(21, 8)</t>
-  </si>
-  <si>
-    <t>(21, 10)</t>
-  </si>
-  <si>
-    <t>ku2</t>
-  </si>
-  <si>
-    <t>(25, 9); (45, 14)</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>(25, 10); (37, 5); (37, 9); (69, 6)</t>
-  </si>
-  <si>
-    <t>(25, 11); (29, 4); (37, 11); (41, 11)</t>
-  </si>
-  <si>
-    <t>tok8</t>
-  </si>
-  <si>
-    <t>(25, 12); (37, 12); (81, 7)</t>
-  </si>
-  <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>(25, 13); (29, 6)</t>
-  </si>
-  <si>
-    <t>(25, 14); (29, 7)</t>
-  </si>
-  <si>
-    <t>cing1</t>
-  </si>
-  <si>
-    <t>(25, 15); (77, 9)</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>(25, 17); (41, 9)</t>
-  </si>
-  <si>
-    <t>(25, 18); (33, 10); (37, 10); (41, 10)</t>
-  </si>
-  <si>
-    <t>zui3</t>
-  </si>
-  <si>
-    <t>(29, 5); (41, 12)</t>
-  </si>
-  <si>
-    <t>sing2</t>
-  </si>
-  <si>
-    <t>(29, 8)</t>
-  </si>
-  <si>
-    <t>(29, 11); (57, 14); (65, 13); (77, 13); (81, 11)</t>
-  </si>
-  <si>
-    <t>(33, 9)</t>
-  </si>
-  <si>
-    <t>(33, 11); (37, 15); (41, 15); (85, 7)</t>
-  </si>
-  <si>
-    <t>ging5</t>
-  </si>
-  <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>(33, 13)</t>
-  </si>
-  <si>
-    <t>(33, 15); (61, 6)</t>
-  </si>
-  <si>
-    <t>(33, 18); (57, 13); (65, 12)</t>
-  </si>
-  <si>
-    <t>the1</t>
-  </si>
-  <si>
-    <t>(37, 17); (41, 6); (41, 17); (45, 6)</t>
-  </si>
-  <si>
-    <t>ni5</t>
-  </si>
-  <si>
-    <t>(37, 18)</t>
-  </si>
-  <si>
-    <t>(41, 5)</t>
-  </si>
-  <si>
-    <t>zau1</t>
-  </si>
-  <si>
-    <t>(41, 18)</t>
-  </si>
-  <si>
-    <t>cim1</t>
-  </si>
-  <si>
-    <t>(45, 11)</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>ling7</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>(49, 4)</t>
-  </si>
-  <si>
-    <t>goo5</t>
-  </si>
-  <si>
-    <t>(53, 9); (77, 15); (81, 13)</t>
-  </si>
-  <si>
-    <t>(53, 10)</t>
-  </si>
-  <si>
-    <t>sin1</t>
-  </si>
-  <si>
-    <t>(53, 13); (57, 5)</t>
-  </si>
-  <si>
-    <t>bak4</t>
-  </si>
-  <si>
-    <t>(53, 14)</t>
-  </si>
-  <si>
-    <t>(53, 15); (57, 7); (61, 10)</t>
-  </si>
-  <si>
-    <t>(53, 16); (57, 8)</t>
-  </si>
-  <si>
-    <t>tuann5</t>
-  </si>
-  <si>
-    <t>(53, 17)</t>
-  </si>
-  <si>
-    <t>kuan3</t>
-  </si>
-  <si>
-    <t>(53, 18)</t>
-  </si>
-  <si>
-    <t>(57, 6)</t>
-  </si>
-  <si>
-    <t>tin2</t>
-  </si>
-  <si>
-    <t>(57, 9)</t>
-  </si>
-  <si>
-    <t>(57, 10)</t>
-  </si>
-  <si>
-    <t>an1</t>
-  </si>
-  <si>
-    <t>(57, 12); (65, 11)</t>
-  </si>
-  <si>
-    <t>(57, 15)</t>
-  </si>
-  <si>
-    <t>cat4</t>
-  </si>
-  <si>
-    <t>(57, 17); (57, 18)</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>(61, 5)</t>
-  </si>
-  <si>
-    <t>hoonnh4</t>
-  </si>
-  <si>
-    <t>(61, 11); (69, 11)</t>
-  </si>
-  <si>
-    <t>(61, 13)</t>
-  </si>
-  <si>
-    <t>siong1</t>
-  </si>
-  <si>
-    <t>(61, 15)</t>
-  </si>
-  <si>
-    <t>liu5</t>
-  </si>
-  <si>
-    <t>(61, 16)</t>
-  </si>
-  <si>
-    <t>zong3</t>
-  </si>
-  <si>
-    <t>pak4</t>
-  </si>
-  <si>
-    <t>(65, 9)</t>
-  </si>
-  <si>
-    <t>(65, 14); (65, 15)</t>
-  </si>
-  <si>
-    <t>pik8</t>
-  </si>
-  <si>
-    <t>bong5</t>
-  </si>
-  <si>
-    <t>(69, 5)</t>
-  </si>
-  <si>
-    <t>thun5</t>
-  </si>
-  <si>
-    <t>ai1</t>
-  </si>
-  <si>
-    <t>(69, 10)</t>
-  </si>
-  <si>
-    <t>kuan2</t>
-  </si>
-  <si>
-    <t>ni2</t>
-  </si>
-  <si>
-    <t>cio3</t>
-  </si>
-  <si>
-    <t>(73, 11)</t>
-  </si>
-  <si>
-    <t>(73, 14); (85, 5)</t>
-  </si>
-  <si>
-    <t>(73, 16)</t>
-  </si>
-  <si>
-    <t>cng1</t>
-  </si>
-  <si>
-    <t>(77, 5); (77, 18)</t>
-  </si>
-  <si>
-    <t>(77, 6); (81, 4)</t>
-  </si>
-  <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>(77, 8); (81, 6)</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>(77, 10); (81, 8)</t>
-  </si>
-  <si>
-    <t>kho2</t>
-  </si>
-  <si>
-    <t>(77, 12); (81, 10)</t>
-  </si>
-  <si>
-    <t>zok8</t>
-  </si>
-  <si>
-    <t>(77, 14); (81, 12)</t>
-  </si>
-  <si>
-    <t>ing1</t>
-  </si>
-  <si>
-    <t>(77, 16)</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>(81, 14)</t>
-  </si>
-  <si>
-    <t>sui7</t>
-  </si>
-  <si>
-    <t>(85, 4)</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>(85, 8)</t>
-  </si>
-  <si>
-    <t>gian5</t>
-  </si>
-  <si>
-    <t>(85, 10)</t>
-  </si>
-  <si>
-    <t>ggu2</t>
-  </si>
-  <si>
-    <t>kut7</t>
-  </si>
-  <si>
-    <t>gguan2</t>
-  </si>
-  <si>
-    <t>gi5</t>
-  </si>
-  <si>
-    <t>hong5</t>
-  </si>
-  <si>
-    <t>gang1</t>
-  </si>
-  <si>
-    <t>tam2</t>
-  </si>
-  <si>
-    <t>hang2</t>
-  </si>
-  <si>
-    <t>ggim2</t>
-  </si>
-  <si>
-    <t>dik8</t>
-  </si>
-  <si>
-    <t>buan6</t>
-  </si>
-  <si>
-    <t>ggan2</t>
-  </si>
-  <si>
-    <t>sik7</t>
-  </si>
-  <si>
-    <t>ziao2</t>
-  </si>
-  <si>
-    <t>zui6</t>
-  </si>
-  <si>
-    <t>hing2</t>
-  </si>
-  <si>
-    <t>iong2</t>
-  </si>
-  <si>
-    <t>koo1</t>
-  </si>
-  <si>
-    <t>zzi2</t>
-  </si>
-  <si>
-    <t>bbun6</t>
-  </si>
-  <si>
-    <t>zu3</t>
-  </si>
-  <si>
-    <t>lu2</t>
-  </si>
-  <si>
-    <t>dai6</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>ho2</t>
-  </si>
-  <si>
-    <t>zi5</t>
-  </si>
-  <si>
-    <t>gu3</t>
-  </si>
-  <si>
-    <t>se5</t>
-  </si>
-  <si>
-    <t>gai1</t>
-  </si>
-  <si>
-    <t>dok8</t>
-  </si>
-  <si>
-    <t>ggnoo3</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-  </si>
-  <si>
-    <t>zzin2</t>
-  </si>
-  <si>
-    <t>zui5</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>but7</t>
-  </si>
-  <si>
-    <t>gging2</t>
-  </si>
-  <si>
-    <t>de6</t>
-  </si>
-  <si>
-    <t>bbut8</t>
-  </si>
-  <si>
-    <t>ling2</t>
-  </si>
-  <si>
-    <t>te1</t>
-  </si>
-  <si>
-    <t>gi2</t>
-  </si>
-  <si>
-    <t>lni2</t>
-  </si>
-  <si>
-    <t>po1</t>
-  </si>
-  <si>
-    <t>zao1</t>
-  </si>
-  <si>
-    <t>go1</t>
-  </si>
-  <si>
-    <t>zu6</t>
-  </si>
-  <si>
-    <t>ling6</t>
-  </si>
-  <si>
-    <t>ui6</t>
-  </si>
-  <si>
-    <t>ggoo2</t>
-  </si>
-  <si>
-    <t>bbun2</t>
-  </si>
-  <si>
-    <t>bbak7</t>
-  </si>
-  <si>
-    <t>zia3</t>
-  </si>
-  <si>
-    <t>bit7</t>
-  </si>
-  <si>
-    <t>dnua2</t>
-  </si>
-  <si>
-    <t>din3</t>
-  </si>
-  <si>
-    <t>cat7</t>
-  </si>
-  <si>
-    <t>siu6</t>
-  </si>
-  <si>
-    <t>hnooh7</t>
-  </si>
-  <si>
-    <t>hu5</t>
-  </si>
-  <si>
-    <t>liu2</t>
-  </si>
-  <si>
-    <t>zong5</t>
-  </si>
-  <si>
-    <t>bak7</t>
-  </si>
-  <si>
-    <t>diong6</t>
-  </si>
-  <si>
-    <t>ho6</t>
-  </si>
-  <si>
-    <t>bik8</t>
-  </si>
-  <si>
-    <t>bbong2</t>
-  </si>
-  <si>
-    <t>tun2</t>
-  </si>
-  <si>
-    <t>guan3</t>
-  </si>
-  <si>
-    <t>lni3</t>
-  </si>
-  <si>
-    <t>cio5</t>
-  </si>
-  <si>
-    <t>goo3</t>
-  </si>
-  <si>
-    <t>ku3</t>
-  </si>
-  <si>
-    <t>long6</t>
-  </si>
-  <si>
-    <t>sui3</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>ko3</t>
-  </si>
-  <si>
-    <t>ziok7</t>
-  </si>
-  <si>
-    <t>sui6</t>
-  </si>
-  <si>
-    <t>ggian2</t>
-  </si>
-  <si>
-    <t>Kó</t>
-  </si>
-  <si>
-    <t>Khut</t>
-  </si>
-  <si>
-    <t>Pō͘</t>
-  </si>
-  <si>
-    <t>歠</t>
+    <t>_working</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chhoat</t>
-  </si>
-  <si>
-    <t>È</t>
-  </si>
-  <si>
-    <t>ko2</t>
-  </si>
-  <si>
-    <t>ko2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go3</t>
-  </si>
-  <si>
-    <t>khut4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poo7</t>
-  </si>
-  <si>
-    <t>poo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boo6</t>
-  </si>
-  <si>
-    <t>cuat4</t>
-  </si>
-  <si>
-    <t>cuat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuat7</t>
-  </si>
-  <si>
-    <t>è3</t>
-  </si>
-  <si>
-    <t>è3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漁父</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hīng</t>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tī</t>
-  </si>
-  <si>
-    <t>Thui</t>
-  </si>
-  <si>
-    <t>濁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cho</t>
-  </si>
-  <si>
-    <t>Bo̍k</t>
-  </si>
-  <si>
-    <t>Tān</t>
-  </si>
-  <si>
-    <t>Io̍k</t>
-  </si>
-  <si>
-    <t>Chin</t>
-  </si>
-  <si>
-    <t>Hok</t>
-  </si>
-  <si>
-    <t>Tîn</t>
-  </si>
-  <si>
-    <t>Oân</t>
-  </si>
-  <si>
-    <t>Ní</t>
-  </si>
-  <si>
-    <t>Chhiàu</t>
-  </si>
-  <si>
-    <t>Khù</t>
-  </si>
-  <si>
-    <t>Chhong</t>
-  </si>
-  <si>
-    <t>濯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cho̍k</t>
   </si>
 </sst>
 </file>
@@ -7462,7 +6336,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7514,7 +6388,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1518</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -7658,2169 +6532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D44C09-CEEB-4CC0-881C-8EB2562B6F91}">
-  <dimension ref="A1:E119"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D7" t="s">
-        <v>499</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" t="s">
-        <v>499</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D11" t="s">
-        <v>499</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D12" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D13" t="s">
-        <v>499</v>
-      </c>
-      <c r="E13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D14" t="s">
-        <v>499</v>
-      </c>
-      <c r="E14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E16" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D17" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D21" t="s">
-        <v>499</v>
-      </c>
-      <c r="E21" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D23" t="s">
-        <v>499</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D26" t="s">
-        <v>499</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>288</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D27" t="s">
-        <v>499</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" t="s">
-        <v>499</v>
-      </c>
-      <c r="E28" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E29" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D30" t="s">
-        <v>499</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D31" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>499</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" t="s">
-        <v>499</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>252</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>499</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>499</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D39" t="s">
-        <v>499</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D40" t="s">
-        <v>499</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>457</v>
-      </c>
-      <c r="D41" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D42" t="s">
-        <v>499</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D43" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D45" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D46" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>499</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D49" t="s">
-        <v>499</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>499</v>
-      </c>
-      <c r="E50" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" t="s">
-        <v>499</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" t="s">
-        <v>499</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>387</v>
-      </c>
-      <c r="D53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D54" t="s">
-        <v>499</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D55" t="s">
-        <v>499</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s">
-        <v>379</v>
-      </c>
-      <c r="D56" t="s">
-        <v>499</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>499</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D58" t="s">
-        <v>499</v>
-      </c>
-      <c r="E58" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>455</v>
-      </c>
-      <c r="D59" t="s">
-        <v>499</v>
-      </c>
-      <c r="E59" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" t="s">
-        <v>499</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D61" t="s">
-        <v>499</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D62" t="s">
-        <v>499</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" t="s">
-        <v>499</v>
-      </c>
-      <c r="E63" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D64" t="s">
-        <v>499</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" t="s">
-        <v>499</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D66" t="s">
-        <v>499</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>499</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>499</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D69" t="s">
-        <v>499</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D70" t="s">
-        <v>499</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D71" t="s">
-        <v>499</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>297</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D72" t="s">
-        <v>499</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>499</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D74" t="s">
-        <v>499</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D75" t="s">
-        <v>499</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>422</v>
-      </c>
-      <c r="D76" t="s">
-        <v>499</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>479</v>
-      </c>
-      <c r="D77" t="s">
-        <v>499</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D78" t="s">
-        <v>499</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D79" t="s">
-        <v>499</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>442</v>
-      </c>
-      <c r="D80" t="s">
-        <v>499</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D81" t="s">
-        <v>499</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" t="s">
-        <v>496</v>
-      </c>
-      <c r="D82" t="s">
-        <v>499</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D83" t="s">
-        <v>499</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D84" t="s">
-        <v>499</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D85" t="s">
-        <v>499</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D86" t="s">
-        <v>499</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D87" t="s">
-        <v>499</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D88" t="s">
-        <v>499</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" t="s">
-        <v>499</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>332</v>
-      </c>
-      <c r="D90" t="s">
-        <v>499</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D91" t="s">
-        <v>499</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D92" t="s">
-        <v>499</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D93" t="s">
-        <v>499</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>448</v>
-      </c>
-      <c r="D94" t="s">
-        <v>499</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D95" t="s">
-        <v>499</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="s">
-        <v>319</v>
-      </c>
-      <c r="D96" t="s">
-        <v>499</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>238</v>
-      </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>352</v>
-      </c>
-      <c r="D97" t="s">
-        <v>499</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D98" t="s">
-        <v>499</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D99" t="s">
-        <v>499</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" t="s">
-        <v>499</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D101" t="s">
-        <v>499</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D102" t="s">
-        <v>499</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D103" t="s">
-        <v>499</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D104" t="s">
-        <v>499</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D105" t="s">
-        <v>499</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>467</v>
-      </c>
-      <c r="D106" t="s">
-        <v>499</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>412</v>
-      </c>
-      <c r="D107" t="s">
-        <v>499</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>248</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" t="s">
-        <v>499</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D109" t="s">
-        <v>499</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>174</v>
-      </c>
-      <c r="B110">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" t="s">
-        <v>499</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D111" t="s">
-        <v>499</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B112">
-        <v>2</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D112" t="s">
-        <v>499</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D113" t="s">
-        <v>499</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D114" t="s">
-        <v>499</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D115" t="s">
-        <v>499</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D116" t="s">
-        <v>499</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D117" t="s">
-        <v>499</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D118" t="s">
-        <v>499</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D119" t="s">
-        <v>499</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980E513-9876-4740-B476-574426890932}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1979" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -9930,7 +6649,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -9952,19 +6671,13 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
-        <v>1258</v>
-      </c>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>1263</v>
-      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
       <c r="I4" s="50"/>
@@ -9984,23 +6697,11 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H5" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -10018,12 +6719,8 @@
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>332</v>
-      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
@@ -10052,9 +6749,7 @@
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="52" t="s">
-        <v>1519</v>
-      </c>
+      <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -10064,44 +6759,20 @@
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="50" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>1270</v>
-      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>1275</v>
-      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>1277</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>1278</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>1279</v>
-      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="18"/>
       <c r="V8" s="55"/>
@@ -10111,95 +6782,41 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>1176</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>1178</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
       <c r="V9" s="55"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
-      <c r="D10" s="51" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>1422</v>
-      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>1423</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>1424</v>
-      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="51"/>
-      <c r="N10" s="51" t="s">
-        <v>1425</v>
-      </c>
-      <c r="O10" s="51" t="s">
-        <v>1426</v>
-      </c>
-      <c r="P10" s="51" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>1428</v>
-      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
       <c r="V10" s="55"/>
@@ -10226,31 +6843,15 @@
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="50" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>1285</v>
-      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="J12" s="50" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>1506</v>
-      </c>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
@@ -10265,41 +6866,17 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>1185</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -10309,31 +6886,15 @@
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
-      <c r="D14" s="51" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>1432</v>
-      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
-        <v>1433</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>1435</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>1508</v>
-      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
@@ -10365,47 +6926,21 @@
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>311</v>
-      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="50"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>1298</v>
-      </c>
-      <c r="P16" s="50" t="s">
-        <v>1300</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="50" t="s">
-        <v>340</v>
-      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="18"/>
       <c r="V16" s="55"/>
     </row>
@@ -10414,106 +6949,48 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>1188</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>1189</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>110</v>
-      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="20"/>
       <c r="V17" s="55"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
-      <c r="D18" s="51" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>1437</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>311</v>
-      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
-      <c r="M18" s="51" t="s">
-        <v>1438</v>
-      </c>
-      <c r="N18" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="O18" s="51" t="s">
-        <v>1298</v>
-      </c>
-      <c r="P18" s="51" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Q18" s="51" t="s">
-        <v>1440</v>
-      </c>
-      <c r="R18" s="51" t="s">
-        <v>340</v>
-      </c>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="29"/>
       <c r="V18" s="55"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="52" t="s">
-        <v>1520</v>
-      </c>
+      <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
@@ -10532,25 +7009,13 @@
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="50" t="s">
-        <v>334</v>
-      </c>
+      <c r="D20" s="50"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>56</v>
-      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
@@ -10567,38 +7032,16 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="M21" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
@@ -10609,25 +7052,13 @@
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
-      <c r="D22" s="51" t="s">
-        <v>1441</v>
-      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="51"/>
-      <c r="F22" s="51" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>56</v>
-      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
@@ -10661,45 +7092,21 @@
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="50" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>311</v>
-      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="50" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>1314</v>
-      </c>
-      <c r="M24" s="50" t="s">
-        <v>1316</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>1314</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>1319</v>
-      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="50"/>
-      <c r="Q24" s="50" t="s">
-        <v>1321</v>
-      </c>
-      <c r="R24" s="50" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="18"/>
       <c r="V24" s="55"/>
     </row>
@@ -10708,95 +7115,41 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>1194</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>1195</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>37</v>
-      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="20"/>
       <c r="V25" s="55"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
-      <c r="D26" s="51" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>311</v>
-      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
-      <c r="I26" s="51" t="s">
-        <v>1444</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>1445</v>
-      </c>
-      <c r="K26" s="51" t="s">
-        <v>1446</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>1447</v>
-      </c>
-      <c r="M26" s="51" t="s">
-        <v>1448</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>1447</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>1319</v>
-      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="51"/>
-      <c r="Q26" s="51" t="s">
-        <v>1449</v>
-      </c>
-      <c r="R26" s="51" t="s">
-        <v>1450</v>
-      </c>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
       <c r="S26" s="29"/>
       <c r="V26" s="55"/>
     </row>
@@ -10818,45 +7171,34 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="U27" s="6"/>
+      <c r="U27" s="33" t="str">
+        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
+        <v/>
+      </c>
       <c r="V27" s="55"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>1326</v>
-      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="50"/>
-      <c r="J28" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>1270</v>
-      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
       <c r="P28" s="50"/>
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
+      <c r="U28" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V28" s="55"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -10864,88 +7206,50 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>1174</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="P29" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
+      <c r="U29" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V29" s="55"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
-      <c r="D30" s="51" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>59</v>
-      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="51"/>
-      <c r="J30" s="51" t="s">
-        <v>1452</v>
-      </c>
-      <c r="K30" s="51" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L30" s="51" t="s">
-        <v>1416</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>1422</v>
-      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51"/>
       <c r="P30" s="51"/>
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
+      <c r="U30" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V30" s="55"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
@@ -10960,59 +7264,40 @@
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="52" t="s">
-        <v>1521</v>
-      </c>
+      <c r="M31" s="52"/>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="U31" s="6"/>
+      <c r="U31" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V31" s="55"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>311</v>
-      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="L32" s="50" t="s">
-        <v>1331</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N32" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="O32" s="50" t="s">
-        <v>379</v>
-      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="50"/>
-      <c r="Q32" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="R32" s="50" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
       <c r="S32" s="18"/>
+      <c r="U32" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="V32" s="55"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -11020,95 +7305,41 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>1203</v>
-      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
       <c r="S33" s="20"/>
       <c r="V33" s="55"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
-      <c r="D34" s="51" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>311</v>
-      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="51" t="s">
-        <v>1454</v>
-      </c>
-      <c r="J34" s="51" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K34" s="51" t="s">
-        <v>1455</v>
-      </c>
-      <c r="L34" s="51" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M34" s="51" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N34" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="O34" s="51" t="s">
-        <v>1458</v>
-      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="51"/>
-      <c r="Q34" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R34" s="51" t="s">
-        <v>1459</v>
-      </c>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
       <c r="S34" s="29"/>
       <c r="V34" s="55"/>
     </row>
@@ -11117,9 +7348,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
-      <c r="F35" s="52" t="s">
-        <v>1522</v>
-      </c>
+      <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
@@ -11136,47 +7365,21 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>455</v>
-      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="50"/>
-      <c r="I36" s="50" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="L36" s="50" t="s">
-        <v>1314</v>
-      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
       <c r="M36" s="50"/>
-      <c r="N36" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="P36" s="50" t="s">
-        <v>1265</v>
-      </c>
-      <c r="Q36" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="R36" s="50" t="s">
-        <v>1339</v>
-      </c>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
       <c r="S36" s="18"/>
       <c r="V36" s="55"/>
     </row>
@@ -11185,97 +7388,41 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="P37" s="39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Q37" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="R37" s="39" t="s">
-        <v>1207</v>
-      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
       <c r="S37" s="20"/>
       <c r="V37" s="55"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
-      <c r="D38" s="51" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>336</v>
-      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="51" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J38" s="51" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>1446</v>
-      </c>
-      <c r="L38" s="51" t="s">
-        <v>1447</v>
-      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="51" t="s">
-        <v>1442</v>
-      </c>
-      <c r="O38" s="51" t="s">
-        <v>1455</v>
-      </c>
-      <c r="P38" s="51" t="s">
-        <v>1419</v>
-      </c>
-      <c r="Q38" s="51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="R38" s="51" t="s">
-        <v>1462</v>
-      </c>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
       <c r="S38" s="29"/>
       <c r="V38" s="55"/>
     </row>
@@ -11296,54 +7443,26 @@
       <c r="O39" s="52"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
-      <c r="R39" s="52" t="s">
-        <v>1524</v>
-      </c>
+      <c r="R39" s="52"/>
       <c r="V39" s="55"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>424</v>
-      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="50"/>
-      <c r="I40" s="50" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J40" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="L40" s="50" t="s">
-        <v>1324</v>
-      </c>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="P40" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q40" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40" s="50" t="s">
-        <v>1342</v>
-      </c>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
       <c r="S40" s="18"/>
       <c r="V40" s="55"/>
     </row>
@@ -11352,97 +7471,41 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>1209</v>
-      </c>
-      <c r="Q41" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>1210</v>
-      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
       <c r="S41" s="20"/>
       <c r="V41" s="55"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
-      <c r="D42" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>1463</v>
-      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="51" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K42" s="51" t="s">
-        <v>1446</v>
-      </c>
-      <c r="L42" s="51" t="s">
-        <v>1451</v>
-      </c>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="51"/>
-      <c r="N42" s="51" t="s">
-        <v>1442</v>
-      </c>
-      <c r="O42" s="51" t="s">
-        <v>1455</v>
-      </c>
-      <c r="P42" s="51" t="s">
-        <v>1512</v>
-      </c>
-      <c r="Q42" s="51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="R42" s="51" t="s">
-        <v>1464</v>
-      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
       <c r="S42" s="29"/>
       <c r="V42" s="55"/>
     </row>
@@ -11468,47 +7531,21 @@
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>56</v>
-      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="50"/>
-      <c r="I44" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="50" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K44" s="50" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L44" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="N44" s="50" t="s">
-        <v>1309</v>
-      </c>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
       <c r="O44" s="50"/>
-      <c r="P44" s="50" t="s">
-        <v>1346</v>
-      </c>
-      <c r="Q44" s="50" t="s">
-        <v>1347</v>
-      </c>
-      <c r="R44" s="50" t="s">
-        <v>1270</v>
-      </c>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
       <c r="S44" s="18"/>
       <c r="V44" s="55"/>
     </row>
@@ -11517,97 +7554,41 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>1191</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>1192</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>1216</v>
-      </c>
-      <c r="R45" s="39" t="s">
-        <v>1174</v>
-      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
       <c r="S45" s="20"/>
       <c r="V45" s="55"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
-      <c r="D46" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>56</v>
-      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="51"/>
-      <c r="I46" s="51" t="s">
-        <v>1442</v>
-      </c>
-      <c r="J46" s="51" t="s">
-        <v>1350</v>
-      </c>
-      <c r="K46" s="51" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L46" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" s="51" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N46" s="51" t="s">
-        <v>1444</v>
-      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
       <c r="O46" s="51"/>
-      <c r="P46" s="51" t="s">
-        <v>1466</v>
-      </c>
-      <c r="Q46" s="51" t="s">
-        <v>1467</v>
-      </c>
-      <c r="R46" s="51" t="s">
-        <v>1422</v>
-      </c>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
       <c r="S46" s="29"/>
       <c r="V46" s="55"/>
     </row>
@@ -11633,9 +7614,7 @@
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="50" t="s">
-        <v>1348</v>
-      </c>
+      <c r="D48" s="50"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
@@ -11658,20 +7637,10 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="G49" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
@@ -11688,9 +7657,7 @@
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
-      <c r="D50" s="51" t="s">
-        <v>1468</v>
-      </c>
+      <c r="D50" s="51"/>
       <c r="E50" s="51"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
@@ -11721,58 +7688,30 @@
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52"/>
-      <c r="N51" s="52" t="s">
-        <v>1525</v>
-      </c>
+      <c r="N51" s="52"/>
       <c r="O51" s="52"/>
       <c r="P51" s="52"/>
-      <c r="Q51" s="52" t="s">
-        <v>1526</v>
-      </c>
+      <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
       <c r="V51" s="55"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="50" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>311</v>
-      </c>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="50" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J52" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52" s="50" t="s">
-        <v>338</v>
-      </c>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="50" t="s">
-        <v>1353</v>
-      </c>
-      <c r="N52" s="50" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O52" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="P52" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q52" s="50" t="s">
-        <v>1359</v>
-      </c>
-      <c r="R52" s="50" t="s">
-        <v>1361</v>
-      </c>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
       <c r="S52" s="18"/>
       <c r="V52" s="55"/>
     </row>
@@ -11781,95 +7720,41 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>1219</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>1220</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q53" s="39" t="s">
-        <v>1221</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>1222</v>
-      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
       <c r="S53" s="20"/>
       <c r="V53" s="55"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
-      <c r="D54" s="51" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>311</v>
-      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J54" s="51" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K54" s="51" t="s">
-        <v>338</v>
-      </c>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
       <c r="L54" s="51"/>
-      <c r="M54" s="51" t="s">
-        <v>1353</v>
-      </c>
-      <c r="N54" s="51" t="s">
-        <v>1471</v>
-      </c>
-      <c r="O54" s="51" t="s">
-        <v>1472</v>
-      </c>
-      <c r="P54" s="51" t="s">
-        <v>1473</v>
-      </c>
-      <c r="Q54" s="51" t="s">
-        <v>1474</v>
-      </c>
-      <c r="R54" s="51" t="s">
-        <v>1267</v>
-      </c>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
       <c r="S54" s="29"/>
       <c r="V54" s="55"/>
     </row>
@@ -11878,14 +7763,10 @@
       <c r="C55" s="32"/>
       <c r="D55" s="52"/>
       <c r="E55" s="52"/>
-      <c r="F55" s="52" t="s">
-        <v>1527</v>
-      </c>
+      <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
-      <c r="I55" s="52" t="s">
-        <v>1528</v>
-      </c>
+      <c r="I55" s="52"/>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
@@ -11900,46 +7781,20 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="50"/>
-      <c r="E56" s="50" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="G56" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="H56" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="I56" s="50" t="s">
-        <v>1364</v>
-      </c>
-      <c r="J56" s="50" t="s">
-        <v>496</v>
-      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
       <c r="K56" s="50"/>
-      <c r="L56" s="50" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M56" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N56" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="O56" s="50" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P56" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q56" s="50" t="s">
-        <v>1370</v>
-      </c>
-      <c r="R56" s="50" t="s">
-        <v>1370</v>
-      </c>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
       <c r="S56" s="18"/>
       <c r="V56" s="55"/>
     </row>
@@ -11948,97 +7803,41 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K57" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L57" s="39" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q57" s="39" t="s">
-        <v>1228</v>
-      </c>
-      <c r="R57" s="39" t="s">
-        <v>1228</v>
-      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
       <c r="S57" s="20"/>
       <c r="V57" s="55"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
       <c r="D58" s="51"/>
-      <c r="E58" s="51" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>1475</v>
-      </c>
-      <c r="J58" s="51" t="s">
-        <v>496</v>
-      </c>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="51"/>
-      <c r="L58" s="51" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M58" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="N58" s="51" t="s">
-        <v>1453</v>
-      </c>
-      <c r="O58" s="51" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P58" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q58" s="51" t="s">
-        <v>1476</v>
-      </c>
-      <c r="R58" s="51" t="s">
-        <v>1476</v>
-      </c>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
       <c r="S58" s="29"/>
       <c r="V58" s="55"/>
     </row>
@@ -12065,44 +7864,20 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="50"/>
-      <c r="E60" s="50" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H60" s="50" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I60" s="50" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J60" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="K60" s="50" t="s">
-        <v>1374</v>
-      </c>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="50"/>
-      <c r="M60" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N60" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="O60" s="50" t="s">
-        <v>1377</v>
-      </c>
-      <c r="P60" s="50" t="s">
-        <v>1379</v>
-      </c>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
       <c r="Q60" s="50"/>
-      <c r="R60" s="50" t="s">
-        <v>1381</v>
-      </c>
+      <c r="R60" s="50"/>
       <c r="S60" s="18"/>
       <c r="V60" s="55"/>
     </row>
@@ -12111,95 +7886,41 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J61" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="M61" s="39" t="s">
-        <v>1231</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="P61" s="39" t="s">
-        <v>1233</v>
-      </c>
-      <c r="Q61" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="39" t="s">
-        <v>1234</v>
-      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
       <c r="S61" s="20"/>
       <c r="V61" s="55"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
       <c r="D62" s="51"/>
-      <c r="E62" s="51" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G62" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H62" s="51" t="s">
-        <v>1437</v>
-      </c>
-      <c r="I62" s="51" t="s">
-        <v>1437</v>
-      </c>
-      <c r="J62" s="51" t="s">
-        <v>1472</v>
-      </c>
-      <c r="K62" s="51" t="s">
-        <v>1478</v>
-      </c>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="N62" s="51" t="s">
-        <v>1479</v>
-      </c>
-      <c r="O62" s="51" t="s">
-        <v>1377</v>
-      </c>
-      <c r="P62" s="51" t="s">
-        <v>1480</v>
-      </c>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
       <c r="Q62" s="51"/>
-      <c r="R62" s="51" t="s">
-        <v>1481</v>
-      </c>
+      <c r="R62" s="51"/>
       <c r="S62" s="29"/>
       <c r="V62" s="55"/>
     </row>
@@ -12210,9 +7931,7 @@
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
-      <c r="H63" s="52" t="s">
-        <v>1529</v>
-      </c>
+      <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
       <c r="K63" s="52"/>
@@ -12227,46 +7946,20 @@
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="F64" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H64" s="50" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I64" s="50" t="s">
-        <v>319</v>
-      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="50"/>
-      <c r="K64" s="50" t="s">
-        <v>1367</v>
-      </c>
-      <c r="L64" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M64" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="N64" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="O64" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="P64" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q64" s="50" t="s">
-        <v>1385</v>
-      </c>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
       <c r="V64" s="55"/>
@@ -12276,96 +7969,40 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J65" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="39" t="s">
-        <v>1226</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>1203</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="P65" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q65" s="39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="R65" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
       <c r="S65" s="20"/>
       <c r="V65" s="55"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
-      <c r="D66" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G66" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H66" s="51" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>1483</v>
-      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="51"/>
-      <c r="K66" s="51" t="s">
-        <v>1367</v>
-      </c>
-      <c r="L66" s="51" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M66" s="51" t="s">
-        <v>1453</v>
-      </c>
-      <c r="N66" s="51" t="s">
-        <v>1484</v>
-      </c>
-      <c r="O66" s="51" t="s">
-        <v>1484</v>
-      </c>
-      <c r="P66" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q66" s="51" t="s">
-        <v>1485</v>
-      </c>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
       <c r="V66" s="55"/>
@@ -12378,9 +8015,7 @@
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
-      <c r="I67" s="52" t="s">
-        <v>1530</v>
-      </c>
+      <c r="I67" s="52"/>
       <c r="J67" s="52"/>
       <c r="K67" s="52"/>
       <c r="L67" s="52"/>
@@ -12394,30 +8029,14 @@
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="I68" s="50" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J68" s="50" t="s">
-        <v>1389</v>
-      </c>
-      <c r="K68" s="50" t="s">
-        <v>1374</v>
-      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
       <c r="L68" s="50"/>
       <c r="M68" s="50"/>
       <c r="N68" s="50"/>
@@ -12433,41 +8052,17 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G69" s="39" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H69" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J69" s="39" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K69" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="M69" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="N69" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39"/>
@@ -12477,30 +8072,14 @@
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
-      <c r="D70" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G70" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H70" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="I70" s="51" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J70" s="51" t="s">
-        <v>1389</v>
-      </c>
-      <c r="K70" s="51" t="s">
-        <v>1478</v>
-      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
       <c r="L70" s="51"/>
       <c r="M70" s="51"/>
       <c r="N70" s="51"/>
@@ -12516,23 +8095,15 @@
       <c r="C71" s="32"/>
       <c r="D71" s="52"/>
       <c r="E71" s="52"/>
-      <c r="F71" s="52" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>1532</v>
-      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
       <c r="H71" s="52"/>
-      <c r="I71" s="52" t="s">
-        <v>1533</v>
-      </c>
+      <c r="I71" s="52"/>
       <c r="J71" s="52"/>
       <c r="K71" s="52"/>
       <c r="L71" s="52"/>
       <c r="M71" s="52"/>
-      <c r="N71" s="52" t="s">
-        <v>1534</v>
-      </c>
+      <c r="N71" s="52"/>
       <c r="O71" s="52"/>
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
@@ -12541,44 +8112,20 @@
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="E72" s="50" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G72" s="50" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H72" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>1393</v>
-      </c>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="50"/>
-      <c r="K72" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="L72" s="50" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M72" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="N72" s="50" t="s">
-        <v>412</v>
-      </c>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
       <c r="O72" s="50"/>
-      <c r="P72" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q72" s="50" t="s">
-        <v>311</v>
-      </c>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
       <c r="V72" s="55"/>
@@ -12588,92 +8135,40 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H73" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J73" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K73" s="39" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="N73" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P73" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q73" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>289</v>
-      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
       <c r="S73" s="20"/>
       <c r="V73" s="55"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
-      <c r="D74" s="51" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E74" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G74" s="51" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H74" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="I74" s="51" t="s">
-        <v>1490</v>
-      </c>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
       <c r="J74" s="51"/>
-      <c r="K74" s="51" t="s">
-        <v>1491</v>
-      </c>
+      <c r="K74" s="51"/>
       <c r="L74" s="51"/>
-      <c r="M74" s="51" t="s">
-        <v>1436</v>
-      </c>
-      <c r="N74" s="51" t="s">
-        <v>1492</v>
-      </c>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
       <c r="O74" s="51"/>
-      <c r="P74" s="51" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q74" s="51" t="s">
-        <v>311</v>
-      </c>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
       <c r="V74" s="55"/>
@@ -12682,9 +8177,7 @@
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
       <c r="D75" s="52"/>
-      <c r="E75" s="52" t="s">
-        <v>1535</v>
-      </c>
+      <c r="E75" s="52"/>
       <c r="F75" s="52"/>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
@@ -12697,52 +8190,26 @@
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
-      <c r="R75" s="52" t="s">
-        <v>1535</v>
-      </c>
+      <c r="R75" s="52"/>
       <c r="V75" s="55"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="50"/>
-      <c r="E76" s="50" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="G76" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="H76" s="50" t="s">
-        <v>1400</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J76" s="50" t="s">
-        <v>1402</v>
-      </c>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
       <c r="K76" s="50"/>
-      <c r="L76" s="50" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M76" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="N76" s="50" t="s">
-        <v>1406</v>
-      </c>
-      <c r="O76" s="50" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P76" s="50" t="s">
-        <v>1408</v>
-      </c>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
       <c r="Q76" s="50"/>
-      <c r="R76" s="50" t="s">
-        <v>1397</v>
-      </c>
+      <c r="R76" s="50"/>
       <c r="S76" s="18"/>
       <c r="V76" s="55"/>
     </row>
@@ -12751,95 +8218,41 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J77" s="39" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K77" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L77" s="39" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" s="39" t="s">
-        <v>1536</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="P77" s="39" t="s">
-        <v>1253</v>
-      </c>
-      <c r="Q77" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="R77" s="39" t="s">
-        <v>1248</v>
-      </c>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
       <c r="S77" s="20"/>
       <c r="V77" s="55"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
       <c r="D78" s="51"/>
-      <c r="E78" s="51" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G78" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H78" s="51" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I78" s="51" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J78" s="51" t="s">
-        <v>1495</v>
-      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="51"/>
-      <c r="L78" s="51" t="s">
-        <v>1496</v>
-      </c>
-      <c r="M78" s="51" t="s">
-        <v>1453</v>
-      </c>
-      <c r="N78" s="51" t="s">
-        <v>1406</v>
-      </c>
-      <c r="O78" s="51" t="s">
-        <v>1469</v>
-      </c>
-      <c r="P78" s="51" t="s">
-        <v>1408</v>
-      </c>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
       <c r="Q78" s="51"/>
-      <c r="R78" s="51" t="s">
-        <v>1397</v>
-      </c>
+      <c r="R78" s="51"/>
       <c r="S78" s="29"/>
       <c r="V78" s="55"/>
     </row>
@@ -12849,9 +8262,7 @@
       <c r="D79" s="52"/>
       <c r="E79" s="52"/>
       <c r="F79" s="52"/>
-      <c r="G79" s="52" t="s">
-        <v>1537</v>
-      </c>
+      <c r="G79" s="52"/>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
       <c r="J79" s="52"/>
@@ -12867,37 +8278,17 @@
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="F80" s="50" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G80" s="50" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H80" s="50" t="s">
-        <v>1402</v>
-      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
       <c r="I80" s="50"/>
-      <c r="J80" s="50" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K80" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="L80" s="50" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M80" s="50" t="s">
-        <v>1350</v>
-      </c>
-      <c r="N80" s="50" t="s">
-        <v>1410</v>
-      </c>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
       <c r="O80" s="50"/>
       <c r="P80" s="50"/>
       <c r="Q80" s="50"/>
@@ -12910,87 +8301,37 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I81" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" s="39" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K81" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="L81" s="39" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M81" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="N81" s="39" t="s">
-        <v>1254</v>
-      </c>
-      <c r="O81" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="P81" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q81" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
       <c r="V81" s="55"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
-      <c r="D82" s="51" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G82" s="51" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H82" s="51" t="s">
-        <v>1495</v>
-      </c>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
       <c r="I82" s="51"/>
-      <c r="J82" s="51" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K82" s="51" t="s">
-        <v>1453</v>
-      </c>
-      <c r="L82" s="51" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M82" s="51" t="s">
-        <v>1469</v>
-      </c>
-      <c r="N82" s="51" t="s">
-        <v>1497</v>
-      </c>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
       <c r="O82" s="51"/>
       <c r="P82" s="51"/>
       <c r="Q82" s="51"/>
@@ -13020,25 +8361,13 @@
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="50" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E84" s="50" t="s">
-        <v>412</v>
-      </c>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
       <c r="F84" s="50"/>
-      <c r="G84" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="H84" s="50" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I84" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="J84" s="50" t="s">
-        <v>1416</v>
-      </c>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
       <c r="K84" s="50"/>
       <c r="L84" s="50"/>
       <c r="M84" s="50"/>
@@ -13055,35 +8384,15 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I85" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K85" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L85" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
       <c r="M85" s="39"/>
       <c r="N85" s="39"/>
       <c r="O85" s="39"/>
@@ -13095,25 +8404,13 @@
     </row>
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="21"/>
-      <c r="D86" s="51" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>1492</v>
-      </c>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="51"/>
-      <c r="G86" s="51" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H86" s="51" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I86" s="51" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J86" s="51" t="s">
-        <v>1499</v>
-      </c>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="51"/>
       <c r="L86" s="51"/>
       <c r="M86" s="51"/>
@@ -13170,9 +8467,7 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="39"/>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -13638,7 +8933,7 @@
     </row>
     <row r="113" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B113" s="19">
-        <f t="shared" ref="B113" si="1">B109+1</f>
+        <f t="shared" ref="B113" si="2">B109+1</f>
         <v>28</v>
       </c>
       <c r="D113" s="39"/>
@@ -13714,7 +9009,7 @@
     </row>
     <row r="117" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B117" s="19">
-        <f t="shared" ref="B117" si="2">B113+1</f>
+        <f t="shared" ref="B117" si="3">B113+1</f>
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
@@ -13790,7 +9085,7 @@
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
-        <f t="shared" ref="B121" si="3">B117+1</f>
+        <f t="shared" ref="B121" si="4">B117+1</f>
         <v>30</v>
       </c>
       <c r="D121" s="39"/>
@@ -13866,7 +9161,7 @@
     </row>
     <row r="125" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="4">B121+1</f>
+        <f t="shared" ref="B125" si="5">B121+1</f>
         <v>31</v>
       </c>
       <c r="D125" s="39"/>
@@ -13942,7 +9237,7 @@
     </row>
     <row r="129" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B129" s="19">
-        <f t="shared" ref="B129" si="5">B125+1</f>
+        <f t="shared" ref="B129" si="6">B125+1</f>
         <v>32</v>
       </c>
       <c r="D129" s="39"/>
@@ -14018,7 +9313,7 @@
     </row>
     <row r="133" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B133" s="19">
-        <f t="shared" ref="B133" si="6">B129+1</f>
+        <f t="shared" ref="B133" si="7">B129+1</f>
         <v>33</v>
       </c>
       <c r="D133" s="39"/>
@@ -14094,7 +9389,7 @@
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
-        <f t="shared" ref="B137" si="7">B133+1</f>
+        <f t="shared" ref="B137" si="8">B133+1</f>
         <v>34</v>
       </c>
       <c r="D137" s="39"/>
@@ -14170,7 +9465,7 @@
     </row>
     <row r="141" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B141" s="19">
-        <f t="shared" ref="B141" si="8">B137+1</f>
+        <f t="shared" ref="B141" si="9">B137+1</f>
         <v>35</v>
       </c>
       <c r="D141" s="39"/>
@@ -14246,7 +9541,7 @@
     </row>
     <row r="145" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="19">
-        <f t="shared" ref="B145" si="9">B141+1</f>
+        <f t="shared" ref="B145" si="10">B141+1</f>
         <v>36</v>
       </c>
       <c r="D145" s="39"/>
@@ -14322,7 +9617,7 @@
     </row>
     <row r="149" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="19">
-        <f t="shared" ref="B149" si="10">B145+1</f>
+        <f t="shared" ref="B149" si="11">B145+1</f>
         <v>37</v>
       </c>
       <c r="D149" s="39"/>
@@ -14398,7 +9693,7 @@
     </row>
     <row r="153" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="19">
-        <f t="shared" ref="B153" si="11">B149+1</f>
+        <f t="shared" ref="B153" si="12">B149+1</f>
         <v>38</v>
       </c>
       <c r="D153" s="39"/>
@@ -14474,7 +9769,7 @@
     </row>
     <row r="157" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="19">
-        <f t="shared" ref="B157" si="12">B153+1</f>
+        <f t="shared" ref="B157" si="13">B153+1</f>
         <v>39</v>
       </c>
       <c r="D157" s="39"/>
@@ -14551,7 +9846,7 @@
     </row>
     <row r="161" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B161" s="19">
-        <f t="shared" ref="B161" si="13">B157+1</f>
+        <f t="shared" ref="B161" si="14">B157+1</f>
         <v>40</v>
       </c>
       <c r="D161" s="39"/>
@@ -14627,7 +9922,7 @@
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
-        <f t="shared" ref="B165" si="14">B161+1</f>
+        <f t="shared" ref="B165" si="15">B161+1</f>
         <v>41</v>
       </c>
       <c r="D165" s="39"/>
@@ -14704,7 +9999,7 @@
     </row>
     <row r="169" spans="2:18" ht="58.5">
       <c r="B169" s="19">
-        <f t="shared" ref="B169" si="15">B165+1</f>
+        <f t="shared" ref="B169" si="16">B165+1</f>
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
@@ -14783,7 +10078,7 @@
     </row>
     <row r="173" spans="2:18" ht="58.5">
       <c r="B173" s="19">
-        <f t="shared" ref="B173" si="16">B169+1</f>
+        <f t="shared" ref="B173" si="17">B169+1</f>
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
@@ -14862,7 +10157,7 @@
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
-        <f t="shared" ref="B177" si="17">B173+1</f>
+        <f t="shared" ref="B177" si="18">B173+1</f>
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
@@ -14941,7 +10236,7 @@
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
-        <f t="shared" ref="B181" si="18">B177+1</f>
+        <f t="shared" ref="B181" si="19">B177+1</f>
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
@@ -15020,7 +10315,7 @@
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
-        <f t="shared" ref="B185" si="19">B181+1</f>
+        <f t="shared" ref="B185" si="20">B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
@@ -15099,7 +10394,7 @@
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
-        <f t="shared" ref="B189" si="20">B185+1</f>
+        <f t="shared" ref="B189" si="21">B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
@@ -15178,7 +10473,7 @@
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
-        <f t="shared" ref="B193" si="21">B189+1</f>
+        <f t="shared" ref="B193" si="22">B189+1</f>
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
@@ -15257,7 +10552,7 @@
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
-        <f t="shared" ref="B197" si="22">B193+1</f>
+        <f t="shared" ref="B197" si="23">B193+1</f>
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
@@ -15336,7 +10631,7 @@
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
-        <f t="shared" ref="B201" si="23">B197+1</f>
+        <f t="shared" ref="B201" si="24">B197+1</f>
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
@@ -17548,7 +12843,7 @@
     </row>
     <row r="313" spans="2:18" ht="58.5">
       <c r="B313" s="19">
-        <f t="shared" ref="B313" si="24">B309+1</f>
+        <f t="shared" ref="B313" si="25">B309+1</f>
         <v>78</v>
       </c>
       <c r="C313" s="6"/>
@@ -17627,7 +12922,7 @@
     </row>
     <row r="317" spans="2:18" ht="58.5">
       <c r="B317" s="19">
-        <f t="shared" ref="B317" si="25">B313+1</f>
+        <f t="shared" ref="B317" si="26">B313+1</f>
         <v>79</v>
       </c>
       <c r="C317" s="6"/>
@@ -17706,7 +13001,7 @@
     </row>
     <row r="321" spans="2:18" ht="58.5">
       <c r="B321" s="19">
-        <f t="shared" ref="B321" si="26">B317+1</f>
+        <f t="shared" ref="B321" si="27">B317+1</f>
         <v>80</v>
       </c>
       <c r="C321" s="6"/>
@@ -17785,7 +13080,7 @@
     </row>
     <row r="325" spans="2:18" ht="58.5">
       <c r="B325" s="19">
-        <f t="shared" ref="B325" si="27">B321+1</f>
+        <f t="shared" ref="B325" si="28">B321+1</f>
         <v>81</v>
       </c>
       <c r="C325" s="6"/>
@@ -17864,7 +13159,7 @@
     </row>
     <row r="329" spans="2:18" ht="58.5">
       <c r="B329" s="19">
-        <f t="shared" ref="B329" si="28">B325+1</f>
+        <f t="shared" ref="B329" si="29">B325+1</f>
         <v>82</v>
       </c>
       <c r="C329" s="6"/>
@@ -17943,7 +13238,7 @@
     </row>
     <row r="333" spans="2:18" ht="58.5">
       <c r="B333" s="19">
-        <f t="shared" ref="B333" si="29">B329+1</f>
+        <f t="shared" ref="B333" si="30">B329+1</f>
         <v>83</v>
       </c>
       <c r="C333" s="6"/>
@@ -18022,7 +13317,7 @@
     </row>
     <row r="337" spans="2:18" ht="58.5">
       <c r="B337" s="19">
-        <f t="shared" ref="B337" si="30">B333+1</f>
+        <f t="shared" ref="B337" si="31">B333+1</f>
         <v>84</v>
       </c>
       <c r="C337" s="6"/>
@@ -18101,7 +13396,7 @@
     </row>
     <row r="341" spans="2:18" ht="58.5">
       <c r="B341" s="19">
-        <f t="shared" ref="B341" si="31">B337+1</f>
+        <f t="shared" ref="B341" si="32">B337+1</f>
         <v>85</v>
       </c>
       <c r="C341" s="6"/>
@@ -18180,7 +13475,7 @@
     </row>
     <row r="345" spans="2:18" ht="58.5">
       <c r="B345" s="19">
-        <f t="shared" ref="B345" si="32">B341+1</f>
+        <f t="shared" ref="B345" si="33">B341+1</f>
         <v>86</v>
       </c>
       <c r="C345" s="6"/>
@@ -18259,7 +13554,7 @@
     </row>
     <row r="349" spans="2:18" ht="58.5">
       <c r="B349" s="19">
-        <f t="shared" ref="B349" si="33">B345+1</f>
+        <f t="shared" ref="B349" si="34">B345+1</f>
         <v>87</v>
       </c>
       <c r="C349" s="6"/>
@@ -18338,7 +13633,7 @@
     </row>
     <row r="353" spans="2:18" ht="58.5">
       <c r="B353" s="19">
-        <f t="shared" ref="B353" si="34">B349+1</f>
+        <f t="shared" ref="B353" si="35">B349+1</f>
         <v>88</v>
       </c>
       <c r="C353" s="6"/>
@@ -18417,7 +13712,7 @@
     </row>
     <row r="357" spans="2:18" ht="58.5">
       <c r="B357" s="19">
-        <f t="shared" ref="B357" si="35">B353+1</f>
+        <f t="shared" ref="B357" si="36">B353+1</f>
         <v>89</v>
       </c>
       <c r="C357" s="6"/>
@@ -18496,7 +13791,7 @@
     </row>
     <row r="361" spans="2:18" ht="58.5">
       <c r="B361" s="19">
-        <f t="shared" ref="B361" si="36">B357+1</f>
+        <f t="shared" ref="B361" si="37">B357+1</f>
         <v>90</v>
       </c>
       <c r="C361" s="6"/>
@@ -18575,7 +13870,7 @@
     </row>
     <row r="365" spans="2:18" ht="58.5">
       <c r="B365" s="19">
-        <f t="shared" ref="B365" si="37">B361+1</f>
+        <f t="shared" ref="B365" si="38">B361+1</f>
         <v>91</v>
       </c>
       <c r="C365" s="6"/>
@@ -18654,7 +13949,7 @@
     </row>
     <row r="369" spans="2:18" ht="58.5">
       <c r="B369" s="19">
-        <f t="shared" ref="B369" si="38">B365+1</f>
+        <f t="shared" ref="B369" si="39">B365+1</f>
         <v>92</v>
       </c>
       <c r="C369" s="6"/>
@@ -18733,7 +14028,7 @@
     </row>
     <row r="373" spans="2:18" ht="58.5">
       <c r="B373" s="19">
-        <f t="shared" ref="B373" si="39">B369+1</f>
+        <f t="shared" ref="B373" si="40">B369+1</f>
         <v>93</v>
       </c>
       <c r="C373" s="6"/>
@@ -18812,7 +14107,7 @@
     </row>
     <row r="377" spans="2:18" ht="58.5">
       <c r="B377" s="19">
-        <f t="shared" ref="B377" si="40">B373+1</f>
+        <f t="shared" ref="B377" si="41">B373+1</f>
         <v>94</v>
       </c>
       <c r="C377" s="6"/>
@@ -18891,7 +14186,7 @@
     </row>
     <row r="381" spans="2:18" ht="58.5">
       <c r="B381" s="19">
-        <f t="shared" ref="B381" si="41">B377+1</f>
+        <f t="shared" ref="B381" si="42">B377+1</f>
         <v>95</v>
       </c>
       <c r="C381" s="6"/>
@@ -18970,7 +14265,7 @@
     </row>
     <row r="385" spans="2:18" ht="58.5">
       <c r="B385" s="19">
-        <f t="shared" ref="B385" si="42">B381+1</f>
+        <f t="shared" ref="B385" si="43">B381+1</f>
         <v>96</v>
       </c>
       <c r="C385" s="6"/>
@@ -19049,7 +14344,7 @@
     </row>
     <row r="389" spans="2:18" ht="58.5">
       <c r="B389" s="19">
-        <f t="shared" ref="B389" si="43">B385+1</f>
+        <f t="shared" ref="B389" si="44">B385+1</f>
         <v>97</v>
       </c>
       <c r="C389" s="6"/>
@@ -19128,7 +14423,7 @@
     </row>
     <row r="393" spans="2:18" ht="58.5">
       <c r="B393" s="19">
-        <f t="shared" ref="B393" si="44">B389+1</f>
+        <f t="shared" ref="B393" si="45">B389+1</f>
         <v>98</v>
       </c>
       <c r="C393" s="6"/>
@@ -19207,7 +14502,7 @@
     </row>
     <row r="397" spans="2:18" ht="58.5">
       <c r="B397" s="19">
-        <f t="shared" ref="B397" si="45">B393+1</f>
+        <f t="shared" ref="B397" si="46">B393+1</f>
         <v>99</v>
       </c>
       <c r="C397" s="6"/>
@@ -19286,7 +14581,7 @@
     </row>
     <row r="401" spans="2:18" ht="58.5">
       <c r="B401" s="19">
-        <f t="shared" ref="B401" si="46">B397+1</f>
+        <f t="shared" ref="B401" si="47">B397+1</f>
         <v>100</v>
       </c>
       <c r="C401" s="6"/>
@@ -21498,7 +16793,7 @@
     </row>
     <row r="513" spans="2:18" ht="58.5">
       <c r="B513" s="19">
-        <f t="shared" ref="B513" si="47">B509+1</f>
+        <f t="shared" ref="B513" si="48">B509+1</f>
         <v>128</v>
       </c>
       <c r="C513" s="6"/>
@@ -21577,7 +16872,7 @@
     </row>
     <row r="517" spans="2:18" ht="58.5">
       <c r="B517" s="19">
-        <f t="shared" ref="B517" si="48">B513+1</f>
+        <f t="shared" ref="B517" si="49">B513+1</f>
         <v>129</v>
       </c>
       <c r="C517" s="6"/>
@@ -21656,7 +16951,7 @@
     </row>
     <row r="521" spans="2:18" ht="58.5">
       <c r="B521" s="19">
-        <f t="shared" ref="B521" si="49">B517+1</f>
+        <f t="shared" ref="B521" si="50">B517+1</f>
         <v>130</v>
       </c>
       <c r="C521" s="6"/>
@@ -21735,7 +17030,7 @@
     </row>
     <row r="525" spans="2:18" ht="58.5">
       <c r="B525" s="19">
-        <f t="shared" ref="B525" si="50">B521+1</f>
+        <f t="shared" ref="B525" si="51">B521+1</f>
         <v>131</v>
       </c>
       <c r="C525" s="6"/>
@@ -21814,7 +17109,7 @@
     </row>
     <row r="529" spans="2:18" ht="58.5">
       <c r="B529" s="19">
-        <f t="shared" ref="B529" si="51">B525+1</f>
+        <f t="shared" ref="B529" si="52">B525+1</f>
         <v>132</v>
       </c>
       <c r="C529" s="6"/>
@@ -21893,7 +17188,7 @@
     </row>
     <row r="533" spans="2:18" ht="58.5">
       <c r="B533" s="19">
-        <f t="shared" ref="B533" si="52">B529+1</f>
+        <f t="shared" ref="B533" si="53">B529+1</f>
         <v>133</v>
       </c>
       <c r="C533" s="6"/>
@@ -21972,7 +17267,7 @@
     </row>
     <row r="537" spans="2:18" ht="58.5">
       <c r="B537" s="19">
-        <f t="shared" ref="B537" si="53">B533+1</f>
+        <f t="shared" ref="B537" si="54">B533+1</f>
         <v>134</v>
       </c>
       <c r="C537" s="6"/>
@@ -22051,7 +17346,7 @@
     </row>
     <row r="541" spans="2:18" ht="58.5">
       <c r="B541" s="19">
-        <f t="shared" ref="B541" si="54">B537+1</f>
+        <f t="shared" ref="B541" si="55">B537+1</f>
         <v>135</v>
       </c>
       <c r="C541" s="6"/>
@@ -22130,7 +17425,7 @@
     </row>
     <row r="545" spans="2:18" ht="58.5">
       <c r="B545" s="19">
-        <f t="shared" ref="B545" si="55">B541+1</f>
+        <f t="shared" ref="B545" si="56">B541+1</f>
         <v>136</v>
       </c>
       <c r="C545" s="6"/>
@@ -22209,7 +17504,7 @@
     </row>
     <row r="549" spans="2:18" ht="58.5">
       <c r="B549" s="19">
-        <f t="shared" ref="B549" si="56">B545+1</f>
+        <f t="shared" ref="B549" si="57">B545+1</f>
         <v>137</v>
       </c>
       <c r="C549" s="6"/>
@@ -22288,7 +17583,7 @@
     </row>
     <row r="553" spans="2:18" ht="58.5">
       <c r="B553" s="19">
-        <f t="shared" ref="B553" si="57">B549+1</f>
+        <f t="shared" ref="B553" si="58">B549+1</f>
         <v>138</v>
       </c>
       <c r="C553" s="6"/>
@@ -22367,7 +17662,7 @@
     </row>
     <row r="557" spans="2:18" ht="58.5">
       <c r="B557" s="19">
-        <f t="shared" ref="B557" si="58">B553+1</f>
+        <f t="shared" ref="B557" si="59">B553+1</f>
         <v>139</v>
       </c>
       <c r="C557" s="6"/>
@@ -22446,7 +17741,7 @@
     </row>
     <row r="561" spans="2:18" ht="58.5">
       <c r="B561" s="19">
-        <f t="shared" ref="B561" si="59">B557+1</f>
+        <f t="shared" ref="B561" si="60">B557+1</f>
         <v>140</v>
       </c>
       <c r="C561" s="6"/>
@@ -22525,7 +17820,7 @@
     </row>
     <row r="565" spans="2:18" ht="58.5">
       <c r="B565" s="19">
-        <f t="shared" ref="B565" si="60">B561+1</f>
+        <f t="shared" ref="B565" si="61">B561+1</f>
         <v>141</v>
       </c>
       <c r="C565" s="6"/>
@@ -22604,7 +17899,7 @@
     </row>
     <row r="569" spans="2:18" ht="58.5">
       <c r="B569" s="19">
-        <f t="shared" ref="B569" si="61">B565+1</f>
+        <f t="shared" ref="B569" si="62">B565+1</f>
         <v>142</v>
       </c>
       <c r="C569" s="6"/>
@@ -22683,7 +17978,7 @@
     </row>
     <row r="573" spans="2:18" ht="58.5">
       <c r="B573" s="19">
-        <f t="shared" ref="B573" si="62">B569+1</f>
+        <f t="shared" ref="B573" si="63">B569+1</f>
         <v>143</v>
       </c>
       <c r="C573" s="6"/>
@@ -22762,7 +18057,7 @@
     </row>
     <row r="577" spans="2:18" ht="58.5">
       <c r="B577" s="19">
-        <f t="shared" ref="B577" si="63">B573+1</f>
+        <f t="shared" ref="B577" si="64">B573+1</f>
         <v>144</v>
       </c>
       <c r="C577" s="6"/>
@@ -22841,7 +18136,7 @@
     </row>
     <row r="581" spans="2:18" ht="58.5">
       <c r="B581" s="19">
-        <f t="shared" ref="B581" si="64">B577+1</f>
+        <f t="shared" ref="B581" si="65">B577+1</f>
         <v>145</v>
       </c>
       <c r="C581" s="6"/>
@@ -22920,7 +18215,7 @@
     </row>
     <row r="585" spans="2:18" ht="58.5">
       <c r="B585" s="19">
-        <f t="shared" ref="B585" si="65">B581+1</f>
+        <f t="shared" ref="B585" si="66">B581+1</f>
         <v>146</v>
       </c>
       <c r="C585" s="6"/>
@@ -22999,7 +18294,7 @@
     </row>
     <row r="589" spans="2:18" ht="58.5">
       <c r="B589" s="19">
-        <f t="shared" ref="B589" si="66">B585+1</f>
+        <f t="shared" ref="B589" si="67">B585+1</f>
         <v>147</v>
       </c>
       <c r="C589" s="6"/>
@@ -23078,7 +18373,7 @@
     </row>
     <row r="593" spans="2:18" ht="58.5">
       <c r="B593" s="19">
-        <f t="shared" ref="B593" si="67">B589+1</f>
+        <f t="shared" ref="B593" si="68">B589+1</f>
         <v>148</v>
       </c>
       <c r="C593" s="6"/>
@@ -23157,7 +18452,7 @@
     </row>
     <row r="597" spans="2:18" ht="58.5">
       <c r="B597" s="19">
-        <f t="shared" ref="B597" si="68">B593+1</f>
+        <f t="shared" ref="B597" si="69">B593+1</f>
         <v>149</v>
       </c>
       <c r="C597" s="6"/>
@@ -23236,7 +18531,7 @@
     </row>
     <row r="601" spans="2:18" ht="58.5">
       <c r="B601" s="19">
-        <f t="shared" ref="B601" si="69">B597+1</f>
+        <f t="shared" ref="B601" si="70">B597+1</f>
         <v>150</v>
       </c>
       <c r="C601" s="6"/>
@@ -25448,7 +20743,7 @@
     </row>
     <row r="713" spans="2:18" ht="58.5">
       <c r="B713" s="19">
-        <f t="shared" ref="B713" si="70">B709+1</f>
+        <f t="shared" ref="B713" si="71">B709+1</f>
         <v>178</v>
       </c>
       <c r="C713" s="6"/>
@@ -25527,7 +20822,7 @@
     </row>
     <row r="717" spans="2:18" ht="58.5">
       <c r="B717" s="19">
-        <f t="shared" ref="B717" si="71">B713+1</f>
+        <f t="shared" ref="B717" si="72">B713+1</f>
         <v>179</v>
       </c>
       <c r="C717" s="6"/>
@@ -25606,7 +20901,7 @@
     </row>
     <row r="721" spans="2:18" ht="58.5">
       <c r="B721" s="19">
-        <f t="shared" ref="B721" si="72">B717+1</f>
+        <f t="shared" ref="B721" si="73">B717+1</f>
         <v>180</v>
       </c>
       <c r="C721" s="6"/>
@@ -25685,7 +20980,7 @@
     </row>
     <row r="725" spans="2:18" ht="58.5">
       <c r="B725" s="19">
-        <f t="shared" ref="B725" si="73">B721+1</f>
+        <f t="shared" ref="B725" si="74">B721+1</f>
         <v>181</v>
       </c>
       <c r="C725" s="6"/>
@@ -25764,7 +21059,7 @@
     </row>
     <row r="729" spans="2:18" ht="58.5">
       <c r="B729" s="19">
-        <f t="shared" ref="B729" si="74">B725+1</f>
+        <f t="shared" ref="B729" si="75">B725+1</f>
         <v>182</v>
       </c>
       <c r="C729" s="6"/>
@@ -25843,7 +21138,7 @@
     </row>
     <row r="733" spans="2:18" ht="58.5">
       <c r="B733" s="19">
-        <f t="shared" ref="B733" si="75">B729+1</f>
+        <f t="shared" ref="B733" si="76">B729+1</f>
         <v>183</v>
       </c>
       <c r="C733" s="6"/>
@@ -25922,7 +21217,7 @@
     </row>
     <row r="737" spans="2:18" ht="58.5">
       <c r="B737" s="19">
-        <f t="shared" ref="B737" si="76">B733+1</f>
+        <f t="shared" ref="B737" si="77">B733+1</f>
         <v>184</v>
       </c>
       <c r="C737" s="6"/>
@@ -26001,7 +21296,7 @@
     </row>
     <row r="741" spans="2:18" ht="58.5">
       <c r="B741" s="19">
-        <f t="shared" ref="B741" si="77">B737+1</f>
+        <f t="shared" ref="B741" si="78">B737+1</f>
         <v>185</v>
       </c>
       <c r="C741" s="6"/>
@@ -26080,7 +21375,7 @@
     </row>
     <row r="745" spans="2:18" ht="58.5">
       <c r="B745" s="19">
-        <f t="shared" ref="B745" si="78">B741+1</f>
+        <f t="shared" ref="B745" si="79">B741+1</f>
         <v>186</v>
       </c>
       <c r="C745" s="6"/>
@@ -26159,7 +21454,7 @@
     </row>
     <row r="749" spans="2:18" ht="58.5">
       <c r="B749" s="19">
-        <f t="shared" ref="B749" si="79">B745+1</f>
+        <f t="shared" ref="B749" si="80">B745+1</f>
         <v>187</v>
       </c>
       <c r="C749" s="6"/>
@@ -26238,7 +21533,7 @@
     </row>
     <row r="753" spans="2:18" ht="58.5">
       <c r="B753" s="19">
-        <f t="shared" ref="B753" si="80">B749+1</f>
+        <f t="shared" ref="B753" si="81">B749+1</f>
         <v>188</v>
       </c>
       <c r="C753" s="6"/>
@@ -26317,7 +21612,7 @@
     </row>
     <row r="757" spans="2:18" ht="58.5">
       <c r="B757" s="19">
-        <f t="shared" ref="B757" si="81">B753+1</f>
+        <f t="shared" ref="B757" si="82">B753+1</f>
         <v>189</v>
       </c>
       <c r="C757" s="6"/>
@@ -26396,7 +21691,7 @@
     </row>
     <row r="761" spans="2:18" ht="58.5">
       <c r="B761" s="19">
-        <f t="shared" ref="B761" si="82">B757+1</f>
+        <f t="shared" ref="B761" si="83">B757+1</f>
         <v>190</v>
       </c>
       <c r="C761" s="6"/>
@@ -26475,7 +21770,7 @@
     </row>
     <row r="765" spans="2:18" ht="58.5">
       <c r="B765" s="19">
-        <f t="shared" ref="B765" si="83">B761+1</f>
+        <f t="shared" ref="B765" si="84">B761+1</f>
         <v>191</v>
       </c>
       <c r="C765" s="6"/>
@@ -26554,7 +21849,7 @@
     </row>
     <row r="769" spans="2:18" ht="58.5">
       <c r="B769" s="19">
-        <f t="shared" ref="B769" si="84">B765+1</f>
+        <f t="shared" ref="B769" si="85">B765+1</f>
         <v>192</v>
       </c>
       <c r="C769" s="6"/>
@@ -26633,7 +21928,7 @@
     </row>
     <row r="773" spans="2:18" ht="58.5">
       <c r="B773" s="19">
-        <f t="shared" ref="B773" si="85">B769+1</f>
+        <f t="shared" ref="B773" si="86">B769+1</f>
         <v>193</v>
       </c>
       <c r="C773" s="6"/>
@@ -26712,7 +22007,7 @@
     </row>
     <row r="777" spans="2:18" ht="58.5">
       <c r="B777" s="19">
-        <f t="shared" ref="B777" si="86">B773+1</f>
+        <f t="shared" ref="B777" si="87">B773+1</f>
         <v>194</v>
       </c>
       <c r="C777" s="6"/>
@@ -26791,7 +22086,7 @@
     </row>
     <row r="781" spans="2:18" ht="58.5">
       <c r="B781" s="19">
-        <f t="shared" ref="B781" si="87">B777+1</f>
+        <f t="shared" ref="B781" si="88">B777+1</f>
         <v>195</v>
       </c>
       <c r="C781" s="6"/>
@@ -26870,7 +22165,7 @@
     </row>
     <row r="785" spans="2:18" ht="58.5">
       <c r="B785" s="19">
-        <f t="shared" ref="B785" si="88">B781+1</f>
+        <f t="shared" ref="B785" si="89">B781+1</f>
         <v>196</v>
       </c>
       <c r="C785" s="6"/>
@@ -26949,7 +22244,7 @@
     </row>
     <row r="789" spans="2:18" ht="58.5">
       <c r="B789" s="19">
-        <f t="shared" ref="B789" si="89">B785+1</f>
+        <f t="shared" ref="B789" si="90">B785+1</f>
         <v>197</v>
       </c>
       <c r="C789" s="6"/>
@@ -27028,7 +22323,7 @@
     </row>
     <row r="793" spans="2:18" ht="58.5">
       <c r="B793" s="19">
-        <f t="shared" ref="B793" si="90">B789+1</f>
+        <f t="shared" ref="B793" si="91">B789+1</f>
         <v>198</v>
       </c>
       <c r="C793" s="6"/>
@@ -27107,7 +22402,7 @@
     </row>
     <row r="797" spans="2:18" ht="58.5">
       <c r="B797" s="19">
-        <f t="shared" ref="B797" si="91">B793+1</f>
+        <f t="shared" ref="B797" si="92">B793+1</f>
         <v>199</v>
       </c>
       <c r="C797" s="6"/>
@@ -27186,7 +22481,7 @@
     </row>
     <row r="801" spans="2:18" ht="58.5">
       <c r="B801" s="19">
-        <f t="shared" ref="B801" si="92">B797+1</f>
+        <f t="shared" ref="B801" si="93">B797+1</f>
         <v>200</v>
       </c>
       <c r="C801" s="6"/>
@@ -27265,7 +22560,7 @@
     </row>
     <row r="805" spans="2:18" ht="58.5">
       <c r="B805" s="19">
-        <f t="shared" ref="B805" si="93">B801+1</f>
+        <f t="shared" ref="B805" si="94">B801+1</f>
         <v>201</v>
       </c>
       <c r="C805" s="6"/>
@@ -29398,7 +24693,7 @@
     </row>
     <row r="913" spans="2:18" ht="58.5">
       <c r="B913" s="19">
-        <f t="shared" ref="B913" si="94">B909+1</f>
+        <f t="shared" ref="B913" si="95">B909+1</f>
         <v>228</v>
       </c>
       <c r="C913" s="6"/>
@@ -29477,7 +24772,7 @@
     </row>
     <row r="917" spans="2:18" ht="58.5">
       <c r="B917" s="19">
-        <f t="shared" ref="B917" si="95">B913+1</f>
+        <f t="shared" ref="B917" si="96">B913+1</f>
         <v>229</v>
       </c>
       <c r="C917" s="6"/>
@@ -29556,7 +24851,7 @@
     </row>
     <row r="921" spans="2:18" ht="58.5">
       <c r="B921" s="19">
-        <f t="shared" ref="B921" si="96">B917+1</f>
+        <f t="shared" ref="B921" si="97">B917+1</f>
         <v>230</v>
       </c>
       <c r="C921" s="6"/>
@@ -29635,7 +24930,7 @@
     </row>
     <row r="925" spans="2:18" ht="58.5">
       <c r="B925" s="19">
-        <f t="shared" ref="B925" si="97">B921+1</f>
+        <f t="shared" ref="B925" si="98">B921+1</f>
         <v>231</v>
       </c>
       <c r="C925" s="6"/>
@@ -29714,7 +25009,7 @@
     </row>
     <row r="929" spans="2:18" ht="58.5">
       <c r="B929" s="19">
-        <f t="shared" ref="B929" si="98">B925+1</f>
+        <f t="shared" ref="B929" si="99">B925+1</f>
         <v>232</v>
       </c>
       <c r="C929" s="6"/>
@@ -29793,7 +25088,7 @@
     </row>
     <row r="933" spans="2:18" ht="58.5">
       <c r="B933" s="19">
-        <f t="shared" ref="B933" si="99">B929+1</f>
+        <f t="shared" ref="B933" si="100">B929+1</f>
         <v>233</v>
       </c>
       <c r="C933" s="6"/>
@@ -29872,7 +25167,7 @@
     </row>
     <row r="937" spans="2:18" ht="58.5">
       <c r="B937" s="19">
-        <f t="shared" ref="B937" si="100">B933+1</f>
+        <f t="shared" ref="B937" si="101">B933+1</f>
         <v>234</v>
       </c>
       <c r="C937" s="6"/>
@@ -29951,7 +25246,7 @@
     </row>
     <row r="941" spans="2:18" ht="58.5">
       <c r="B941" s="19">
-        <f t="shared" ref="B941" si="101">B937+1</f>
+        <f t="shared" ref="B941" si="102">B937+1</f>
         <v>235</v>
       </c>
       <c r="C941" s="6"/>
@@ -30030,7 +25325,7 @@
     </row>
     <row r="945" spans="2:18" ht="58.5">
       <c r="B945" s="19">
-        <f t="shared" ref="B945" si="102">B941+1</f>
+        <f t="shared" ref="B945" si="103">B941+1</f>
         <v>236</v>
       </c>
       <c r="C945" s="6"/>
@@ -30109,7 +25404,7 @@
     </row>
     <row r="949" spans="2:18" ht="58.5">
       <c r="B949" s="19">
-        <f t="shared" ref="B949" si="103">B945+1</f>
+        <f t="shared" ref="B949" si="104">B945+1</f>
         <v>237</v>
       </c>
       <c r="C949" s="6"/>
@@ -30188,7 +25483,7 @@
     </row>
     <row r="953" spans="2:18" ht="58.5">
       <c r="B953" s="19">
-        <f t="shared" ref="B953" si="104">B949+1</f>
+        <f t="shared" ref="B953" si="105">B949+1</f>
         <v>238</v>
       </c>
       <c r="C953" s="6"/>
@@ -30267,7 +25562,7 @@
     </row>
     <row r="957" spans="2:18" ht="58.5">
       <c r="B957" s="19">
-        <f t="shared" ref="B957" si="105">B953+1</f>
+        <f t="shared" ref="B957" si="106">B953+1</f>
         <v>239</v>
       </c>
       <c r="C957" s="6"/>
@@ -30346,7 +25641,7 @@
     </row>
     <row r="961" spans="2:18" ht="58.5">
       <c r="B961" s="19">
-        <f t="shared" ref="B961" si="106">B957+1</f>
+        <f t="shared" ref="B961" si="107">B957+1</f>
         <v>240</v>
       </c>
       <c r="C961" s="6"/>
@@ -30425,7 +25720,7 @@
     </row>
     <row r="965" spans="2:18" ht="58.5">
       <c r="B965" s="19">
-        <f t="shared" ref="B965" si="107">B961+1</f>
+        <f t="shared" ref="B965" si="108">B961+1</f>
         <v>241</v>
       </c>
       <c r="C965" s="6"/>
@@ -30504,7 +25799,7 @@
     </row>
     <row r="969" spans="2:18" ht="58.5">
       <c r="B969" s="19">
-        <f t="shared" ref="B969" si="108">B965+1</f>
+        <f t="shared" ref="B969" si="109">B965+1</f>
         <v>242</v>
       </c>
       <c r="C969" s="6"/>
@@ -30583,7 +25878,7 @@
     </row>
     <row r="973" spans="2:18" ht="58.5">
       <c r="B973" s="19">
-        <f t="shared" ref="B973" si="109">B969+1</f>
+        <f t="shared" ref="B973" si="110">B969+1</f>
         <v>243</v>
       </c>
       <c r="C973" s="6"/>
@@ -30662,7 +25957,7 @@
     </row>
     <row r="977" spans="2:18" ht="58.5">
       <c r="B977" s="19">
-        <f t="shared" ref="B977" si="110">B973+1</f>
+        <f t="shared" ref="B977" si="111">B973+1</f>
         <v>244</v>
       </c>
       <c r="C977" s="6"/>
@@ -30741,7 +26036,7 @@
     </row>
     <row r="981" spans="2:18" ht="58.5">
       <c r="B981" s="19">
-        <f t="shared" ref="B981" si="111">B977+1</f>
+        <f t="shared" ref="B981" si="112">B977+1</f>
         <v>245</v>
       </c>
       <c r="C981" s="6"/>
@@ -30820,7 +26115,7 @@
     </row>
     <row r="985" spans="2:18" ht="58.5">
       <c r="B985" s="19">
-        <f t="shared" ref="B985" si="112">B981+1</f>
+        <f t="shared" ref="B985" si="113">B981+1</f>
         <v>246</v>
       </c>
       <c r="C985" s="6"/>
@@ -30899,7 +26194,7 @@
     </row>
     <row r="989" spans="2:18" ht="58.5">
       <c r="B989" s="19">
-        <f t="shared" ref="B989" si="113">B985+1</f>
+        <f t="shared" ref="B989" si="114">B985+1</f>
         <v>247</v>
       </c>
       <c r="C989" s="6"/>
@@ -30978,7 +26273,7 @@
     </row>
     <row r="993" spans="2:18" ht="58.5">
       <c r="B993" s="19">
-        <f t="shared" ref="B993" si="114">B989+1</f>
+        <f t="shared" ref="B993" si="115">B989+1</f>
         <v>248</v>
       </c>
       <c r="C993" s="6"/>
@@ -31057,7 +26352,7 @@
     </row>
     <row r="997" spans="2:18" ht="58.5">
       <c r="B997" s="19">
-        <f t="shared" ref="B997" si="115">B993+1</f>
+        <f t="shared" ref="B997" si="116">B993+1</f>
         <v>249</v>
       </c>
       <c r="C997" s="6"/>
@@ -31136,7 +26431,7 @@
     </row>
     <row r="1001" spans="2:18" ht="58.5">
       <c r="B1001" s="19">
-        <f t="shared" ref="B1001" si="116">B997+1</f>
+        <f t="shared" ref="B1001" si="117">B997+1</f>
         <v>250</v>
       </c>
       <c r="C1001" s="6"/>
@@ -33348,7 +28643,7 @@
     </row>
     <row r="1113" spans="2:18" ht="58.5">
       <c r="B1113" s="19">
-        <f t="shared" ref="B1113" si="117">B1109+1</f>
+        <f t="shared" ref="B1113" si="118">B1109+1</f>
         <v>278</v>
       </c>
       <c r="C1113" s="6"/>
@@ -33427,7 +28722,7 @@
     </row>
     <row r="1117" spans="2:18" ht="58.5">
       <c r="B1117" s="19">
-        <f t="shared" ref="B1117" si="118">B1113+1</f>
+        <f t="shared" ref="B1117" si="119">B1113+1</f>
         <v>279</v>
       </c>
       <c r="C1117" s="6"/>
@@ -33506,7 +28801,7 @@
     </row>
     <row r="1121" spans="2:18" ht="58.5">
       <c r="B1121" s="19">
-        <f t="shared" ref="B1121" si="119">B1117+1</f>
+        <f t="shared" ref="B1121" si="120">B1117+1</f>
         <v>280</v>
       </c>
       <c r="C1121" s="6"/>
@@ -33585,7 +28880,7 @@
     </row>
     <row r="1125" spans="2:18" ht="58.5">
       <c r="B1125" s="19">
-        <f t="shared" ref="B1125" si="120">B1121+1</f>
+        <f t="shared" ref="B1125" si="121">B1121+1</f>
         <v>281</v>
       </c>
       <c r="C1125" s="6"/>
@@ -33664,7 +28959,7 @@
     </row>
     <row r="1129" spans="2:18" ht="58.5">
       <c r="B1129" s="19">
-        <f t="shared" ref="B1129" si="121">B1125+1</f>
+        <f t="shared" ref="B1129" si="122">B1125+1</f>
         <v>282</v>
       </c>
       <c r="C1129" s="6"/>
@@ -33743,7 +29038,7 @@
     </row>
     <row r="1133" spans="2:18" ht="58.5">
       <c r="B1133" s="19">
-        <f t="shared" ref="B1133" si="122">B1129+1</f>
+        <f t="shared" ref="B1133" si="123">B1129+1</f>
         <v>283</v>
       </c>
       <c r="C1133" s="6"/>
@@ -33822,7 +29117,7 @@
     </row>
     <row r="1137" spans="2:18" ht="58.5">
       <c r="B1137" s="19">
-        <f t="shared" ref="B1137" si="123">B1133+1</f>
+        <f t="shared" ref="B1137" si="124">B1133+1</f>
         <v>284</v>
       </c>
       <c r="C1137" s="6"/>
@@ -33901,7 +29196,7 @@
     </row>
     <row r="1141" spans="2:18" ht="58.5">
       <c r="B1141" s="19">
-        <f t="shared" ref="B1141" si="124">B1137+1</f>
+        <f t="shared" ref="B1141" si="125">B1137+1</f>
         <v>285</v>
       </c>
       <c r="C1141" s="6"/>
@@ -33980,7 +29275,7 @@
     </row>
     <row r="1145" spans="2:18" ht="58.5">
       <c r="B1145" s="19">
-        <f t="shared" ref="B1145" si="125">B1141+1</f>
+        <f t="shared" ref="B1145" si="126">B1141+1</f>
         <v>286</v>
       </c>
       <c r="C1145" s="6"/>
@@ -34059,7 +29354,7 @@
     </row>
     <row r="1149" spans="2:18" ht="58.5">
       <c r="B1149" s="19">
-        <f t="shared" ref="B1149" si="126">B1145+1</f>
+        <f t="shared" ref="B1149" si="127">B1145+1</f>
         <v>287</v>
       </c>
       <c r="C1149" s="6"/>
@@ -34138,7 +29433,7 @@
     </row>
     <row r="1153" spans="2:18" ht="58.5">
       <c r="B1153" s="19">
-        <f t="shared" ref="B1153" si="127">B1149+1</f>
+        <f t="shared" ref="B1153" si="128">B1149+1</f>
         <v>288</v>
       </c>
       <c r="C1153" s="6"/>
@@ -34217,7 +29512,7 @@
     </row>
     <row r="1157" spans="2:18" ht="58.5">
       <c r="B1157" s="19">
-        <f t="shared" ref="B1157" si="128">B1153+1</f>
+        <f t="shared" ref="B1157" si="129">B1153+1</f>
         <v>289</v>
       </c>
       <c r="C1157" s="6"/>
@@ -34296,7 +29591,7 @@
     </row>
     <row r="1161" spans="2:18" ht="58.5">
       <c r="B1161" s="19">
-        <f t="shared" ref="B1161" si="129">B1157+1</f>
+        <f t="shared" ref="B1161" si="130">B1157+1</f>
         <v>290</v>
       </c>
       <c r="C1161" s="6"/>
@@ -34375,7 +29670,7 @@
     </row>
     <row r="1165" spans="2:18" ht="58.5">
       <c r="B1165" s="19">
-        <f t="shared" ref="B1165" si="130">B1161+1</f>
+        <f t="shared" ref="B1165" si="131">B1161+1</f>
         <v>291</v>
       </c>
       <c r="C1165" s="6"/>
@@ -34454,7 +29749,7 @@
     </row>
     <row r="1169" spans="2:18" ht="58.5">
       <c r="B1169" s="19">
-        <f t="shared" ref="B1169" si="131">B1165+1</f>
+        <f t="shared" ref="B1169" si="132">B1165+1</f>
         <v>292</v>
       </c>
       <c r="C1169" s="6"/>
@@ -34533,7 +29828,7 @@
     </row>
     <row r="1173" spans="2:18" ht="58.5">
       <c r="B1173" s="19">
-        <f t="shared" ref="B1173" si="132">B1169+1</f>
+        <f t="shared" ref="B1173" si="133">B1169+1</f>
         <v>293</v>
       </c>
       <c r="C1173" s="6"/>
@@ -34612,7 +29907,7 @@
     </row>
     <row r="1177" spans="2:18" ht="58.5">
       <c r="B1177" s="19">
-        <f t="shared" ref="B1177" si="133">B1173+1</f>
+        <f t="shared" ref="B1177" si="134">B1173+1</f>
         <v>294</v>
       </c>
       <c r="C1177" s="6"/>
@@ -34691,7 +29986,7 @@
     </row>
     <row r="1181" spans="2:18" ht="58.5">
       <c r="B1181" s="19">
-        <f t="shared" ref="B1181" si="134">B1177+1</f>
+        <f t="shared" ref="B1181" si="135">B1177+1</f>
         <v>295</v>
       </c>
       <c r="C1181" s="6"/>
@@ -34770,7 +30065,7 @@
     </row>
     <row r="1185" spans="2:18" ht="58.5">
       <c r="B1185" s="19">
-        <f t="shared" ref="B1185" si="135">B1181+1</f>
+        <f t="shared" ref="B1185" si="136">B1181+1</f>
         <v>296</v>
       </c>
       <c r="C1185" s="6"/>
@@ -34849,7 +30144,7 @@
     </row>
     <row r="1189" spans="2:18" ht="58.5">
       <c r="B1189" s="19">
-        <f t="shared" ref="B1189" si="136">B1185+1</f>
+        <f t="shared" ref="B1189" si="137">B1185+1</f>
         <v>297</v>
       </c>
       <c r="C1189" s="6"/>
@@ -34928,7 +30223,7 @@
     </row>
     <row r="1193" spans="2:18" ht="58.5">
       <c r="B1193" s="19">
-        <f t="shared" ref="B1193" si="137">B1189+1</f>
+        <f t="shared" ref="B1193" si="138">B1189+1</f>
         <v>298</v>
       </c>
       <c r="C1193" s="6"/>
@@ -35007,7 +30302,7 @@
     </row>
     <row r="1197" spans="2:18" ht="58.5">
       <c r="B1197" s="19">
-        <f t="shared" ref="B1197" si="138">B1193+1</f>
+        <f t="shared" ref="B1197" si="139">B1193+1</f>
         <v>299</v>
       </c>
       <c r="C1197" s="6"/>
@@ -35086,7 +30381,7 @@
     </row>
     <row r="1201" spans="2:18" ht="58.5">
       <c r="B1201" s="19">
-        <f t="shared" ref="B1201" si="139">B1197+1</f>
+        <f t="shared" ref="B1201" si="140">B1197+1</f>
         <v>300</v>
       </c>
       <c r="C1201" s="6"/>
@@ -35165,7 +30460,7 @@
     </row>
     <row r="1205" spans="2:18" ht="58.5">
       <c r="B1205" s="19">
-        <f t="shared" ref="B1205" si="140">B1201+1</f>
+        <f t="shared" ref="B1205" si="141">B1201+1</f>
         <v>301</v>
       </c>
       <c r="C1205" s="6"/>
@@ -37298,7 +32593,7 @@
     </row>
     <row r="1313" spans="2:18" ht="58.5">
       <c r="B1313" s="19">
-        <f t="shared" ref="B1313" si="141">B1309+1</f>
+        <f t="shared" ref="B1313" si="142">B1309+1</f>
         <v>328</v>
       </c>
       <c r="C1313" s="6"/>
@@ -37377,7 +32672,7 @@
     </row>
     <row r="1317" spans="2:18" ht="58.5">
       <c r="B1317" s="19">
-        <f t="shared" ref="B1317" si="142">B1313+1</f>
+        <f t="shared" ref="B1317" si="143">B1313+1</f>
         <v>329</v>
       </c>
       <c r="C1317" s="6"/>
@@ -37456,7 +32751,7 @@
     </row>
     <row r="1321" spans="2:18" ht="58.5">
       <c r="B1321" s="19">
-        <f t="shared" ref="B1321" si="143">B1317+1</f>
+        <f t="shared" ref="B1321" si="144">B1317+1</f>
         <v>330</v>
       </c>
       <c r="C1321" s="6"/>
@@ -37535,7 +32830,7 @@
     </row>
     <row r="1325" spans="2:18" ht="58.5">
       <c r="B1325" s="19">
-        <f t="shared" ref="B1325" si="144">B1321+1</f>
+        <f t="shared" ref="B1325" si="145">B1321+1</f>
         <v>331</v>
       </c>
       <c r="C1325" s="6"/>
@@ -37614,7 +32909,7 @@
     </row>
     <row r="1329" spans="2:18" ht="58.5">
       <c r="B1329" s="19">
-        <f t="shared" ref="B1329" si="145">B1325+1</f>
+        <f t="shared" ref="B1329" si="146">B1325+1</f>
         <v>332</v>
       </c>
       <c r="C1329" s="6"/>
@@ -37693,7 +32988,7 @@
     </row>
     <row r="1333" spans="2:18" ht="58.5">
       <c r="B1333" s="19">
-        <f t="shared" ref="B1333" si="146">B1329+1</f>
+        <f t="shared" ref="B1333" si="147">B1329+1</f>
         <v>333</v>
       </c>
       <c r="C1333" s="6"/>
@@ -37772,7 +33067,7 @@
     </row>
     <row r="1337" spans="2:18" ht="58.5">
       <c r="B1337" s="19">
-        <f t="shared" ref="B1337" si="147">B1333+1</f>
+        <f t="shared" ref="B1337" si="148">B1333+1</f>
         <v>334</v>
       </c>
       <c r="C1337" s="6"/>
@@ -37851,7 +33146,7 @@
     </row>
     <row r="1341" spans="2:18" ht="58.5">
       <c r="B1341" s="19">
-        <f t="shared" ref="B1341" si="148">B1337+1</f>
+        <f t="shared" ref="B1341" si="149">B1337+1</f>
         <v>335</v>
       </c>
       <c r="C1341" s="6"/>
@@ -37930,7 +33225,7 @@
     </row>
     <row r="1345" spans="2:18" ht="58.5">
       <c r="B1345" s="19">
-        <f t="shared" ref="B1345" si="149">B1341+1</f>
+        <f t="shared" ref="B1345" si="150">B1341+1</f>
         <v>336</v>
       </c>
       <c r="C1345" s="6"/>
@@ -38009,7 +33304,7 @@
     </row>
     <row r="1349" spans="2:18" ht="58.5">
       <c r="B1349" s="19">
-        <f t="shared" ref="B1349" si="150">B1345+1</f>
+        <f t="shared" ref="B1349" si="151">B1345+1</f>
         <v>337</v>
       </c>
       <c r="C1349" s="6"/>
@@ -38088,7 +33383,7 @@
     </row>
     <row r="1353" spans="2:18" ht="58.5">
       <c r="B1353" s="19">
-        <f t="shared" ref="B1353" si="151">B1349+1</f>
+        <f t="shared" ref="B1353" si="152">B1349+1</f>
         <v>338</v>
       </c>
       <c r="C1353" s="6"/>
@@ -38167,7 +33462,7 @@
     </row>
     <row r="1357" spans="2:18" ht="58.5">
       <c r="B1357" s="19">
-        <f t="shared" ref="B1357" si="152">B1353+1</f>
+        <f t="shared" ref="B1357" si="153">B1353+1</f>
         <v>339</v>
       </c>
       <c r="C1357" s="6"/>
@@ -38246,7 +33541,7 @@
     </row>
     <row r="1361" spans="2:18" ht="58.5">
       <c r="B1361" s="19">
-        <f t="shared" ref="B1361" si="153">B1357+1</f>
+        <f t="shared" ref="B1361" si="154">B1357+1</f>
         <v>340</v>
       </c>
       <c r="C1361" s="6"/>
@@ -38325,7 +33620,7 @@
     </row>
     <row r="1365" spans="2:18" ht="58.5">
       <c r="B1365" s="19">
-        <f t="shared" ref="B1365" si="154">B1361+1</f>
+        <f t="shared" ref="B1365" si="155">B1361+1</f>
         <v>341</v>
       </c>
       <c r="C1365" s="6"/>
@@ -38404,7 +33699,7 @@
     </row>
     <row r="1369" spans="2:18" ht="58.5">
       <c r="B1369" s="19">
-        <f t="shared" ref="B1369" si="155">B1365+1</f>
+        <f t="shared" ref="B1369" si="156">B1365+1</f>
         <v>342</v>
       </c>
       <c r="C1369" s="6"/>
@@ -38483,7 +33778,7 @@
     </row>
     <row r="1373" spans="2:18" ht="58.5">
       <c r="B1373" s="19">
-        <f t="shared" ref="B1373" si="156">B1369+1</f>
+        <f t="shared" ref="B1373" si="157">B1369+1</f>
         <v>343</v>
       </c>
       <c r="C1373" s="6"/>
@@ -38562,7 +33857,7 @@
     </row>
     <row r="1377" spans="2:18" ht="58.5">
       <c r="B1377" s="19">
-        <f t="shared" ref="B1377" si="157">B1373+1</f>
+        <f t="shared" ref="B1377" si="158">B1373+1</f>
         <v>344</v>
       </c>
       <c r="C1377" s="6"/>
@@ -38641,7 +33936,7 @@
     </row>
     <row r="1381" spans="2:18" ht="58.5">
       <c r="B1381" s="19">
-        <f t="shared" ref="B1381" si="158">B1377+1</f>
+        <f t="shared" ref="B1381" si="159">B1377+1</f>
         <v>345</v>
       </c>
       <c r="C1381" s="6"/>
@@ -38720,7 +34015,7 @@
     </row>
     <row r="1385" spans="2:18" ht="58.5">
       <c r="B1385" s="19">
-        <f t="shared" ref="B1385" si="159">B1381+1</f>
+        <f t="shared" ref="B1385" si="160">B1381+1</f>
         <v>346</v>
       </c>
       <c r="C1385" s="6"/>
@@ -38799,7 +34094,7 @@
     </row>
     <row r="1389" spans="2:18" ht="58.5">
       <c r="B1389" s="19">
-        <f t="shared" ref="B1389" si="160">B1385+1</f>
+        <f t="shared" ref="B1389" si="161">B1385+1</f>
         <v>347</v>
       </c>
       <c r="C1389" s="6"/>
@@ -38878,7 +34173,7 @@
     </row>
     <row r="1393" spans="2:18" ht="58.5">
       <c r="B1393" s="19">
-        <f t="shared" ref="B1393" si="161">B1389+1</f>
+        <f t="shared" ref="B1393" si="162">B1389+1</f>
         <v>348</v>
       </c>
       <c r="C1393" s="6"/>
@@ -38957,7 +34252,7 @@
     </row>
     <row r="1397" spans="2:18" ht="58.5">
       <c r="B1397" s="19">
-        <f t="shared" ref="B1397" si="162">B1393+1</f>
+        <f t="shared" ref="B1397" si="163">B1393+1</f>
         <v>349</v>
       </c>
       <c r="C1397" s="6"/>
@@ -39036,7 +34331,7 @@
     </row>
     <row r="1401" spans="2:18" ht="58.5">
       <c r="B1401" s="19">
-        <f t="shared" ref="B1401" si="163">B1397+1</f>
+        <f t="shared" ref="B1401" si="164">B1397+1</f>
         <v>350</v>
       </c>
       <c r="C1401" s="6"/>
@@ -41248,7 +36543,7 @@
     </row>
     <row r="1513" spans="2:18" ht="58.5">
       <c r="B1513" s="19">
-        <f t="shared" ref="B1513" si="164">B1509+1</f>
+        <f t="shared" ref="B1513" si="165">B1509+1</f>
         <v>378</v>
       </c>
       <c r="C1513" s="6"/>
@@ -41327,7 +36622,7 @@
     </row>
     <row r="1517" spans="2:18" ht="58.5">
       <c r="B1517" s="19">
-        <f t="shared" ref="B1517" si="165">B1513+1</f>
+        <f t="shared" ref="B1517" si="166">B1513+1</f>
         <v>379</v>
       </c>
       <c r="C1517" s="6"/>
@@ -41406,7 +36701,7 @@
     </row>
     <row r="1521" spans="2:18" ht="58.5">
       <c r="B1521" s="19">
-        <f t="shared" ref="B1521" si="166">B1517+1</f>
+        <f t="shared" ref="B1521" si="167">B1517+1</f>
         <v>380</v>
       </c>
       <c r="C1521" s="6"/>
@@ -41485,7 +36780,7 @@
     </row>
     <row r="1525" spans="2:18" ht="58.5">
       <c r="B1525" s="19">
-        <f t="shared" ref="B1525" si="167">B1521+1</f>
+        <f t="shared" ref="B1525" si="168">B1521+1</f>
         <v>381</v>
       </c>
       <c r="C1525" s="6"/>
@@ -41564,7 +36859,7 @@
     </row>
     <row r="1529" spans="2:18" ht="58.5">
       <c r="B1529" s="19">
-        <f t="shared" ref="B1529" si="168">B1525+1</f>
+        <f t="shared" ref="B1529" si="169">B1525+1</f>
         <v>382</v>
       </c>
       <c r="C1529" s="6"/>
@@ -41643,7 +36938,7 @@
     </row>
     <row r="1533" spans="2:18" ht="58.5">
       <c r="B1533" s="19">
-        <f t="shared" ref="B1533" si="169">B1529+1</f>
+        <f t="shared" ref="B1533" si="170">B1529+1</f>
         <v>383</v>
       </c>
       <c r="C1533" s="6"/>
@@ -41722,7 +37017,7 @@
     </row>
     <row r="1537" spans="2:18" ht="58.5">
       <c r="B1537" s="19">
-        <f t="shared" ref="B1537" si="170">B1533+1</f>
+        <f t="shared" ref="B1537" si="171">B1533+1</f>
         <v>384</v>
       </c>
       <c r="C1537" s="6"/>
@@ -41801,7 +37096,7 @@
     </row>
     <row r="1541" spans="2:18" ht="58.5">
       <c r="B1541" s="19">
-        <f t="shared" ref="B1541" si="171">B1537+1</f>
+        <f t="shared" ref="B1541" si="172">B1537+1</f>
         <v>385</v>
       </c>
       <c r="C1541" s="6"/>
@@ -41880,7 +37175,7 @@
     </row>
     <row r="1545" spans="2:18" ht="58.5">
       <c r="B1545" s="19">
-        <f t="shared" ref="B1545" si="172">B1541+1</f>
+        <f t="shared" ref="B1545" si="173">B1541+1</f>
         <v>386</v>
       </c>
       <c r="C1545" s="6"/>
@@ -41959,7 +37254,7 @@
     </row>
     <row r="1549" spans="2:18" ht="58.5">
       <c r="B1549" s="19">
-        <f t="shared" ref="B1549" si="173">B1545+1</f>
+        <f t="shared" ref="B1549" si="174">B1545+1</f>
         <v>387</v>
       </c>
       <c r="C1549" s="6"/>
@@ -42038,7 +37333,7 @@
     </row>
     <row r="1553" spans="2:18" ht="58.5">
       <c r="B1553" s="19">
-        <f t="shared" ref="B1553" si="174">B1549+1</f>
+        <f t="shared" ref="B1553" si="175">B1549+1</f>
         <v>388</v>
       </c>
       <c r="C1553" s="6"/>
@@ -42117,7 +37412,7 @@
     </row>
     <row r="1557" spans="2:18" ht="58.5">
       <c r="B1557" s="19">
-        <f t="shared" ref="B1557" si="175">B1553+1</f>
+        <f t="shared" ref="B1557" si="176">B1553+1</f>
         <v>389</v>
       </c>
       <c r="C1557" s="6"/>
@@ -42196,7 +37491,7 @@
     </row>
     <row r="1561" spans="2:18" ht="58.5">
       <c r="B1561" s="19">
-        <f t="shared" ref="B1561" si="176">B1557+1</f>
+        <f t="shared" ref="B1561" si="177">B1557+1</f>
         <v>390</v>
       </c>
       <c r="C1561" s="6"/>
@@ -42275,7 +37570,7 @@
     </row>
     <row r="1565" spans="2:18" ht="58.5">
       <c r="B1565" s="19">
-        <f t="shared" ref="B1565" si="177">B1561+1</f>
+        <f t="shared" ref="B1565" si="178">B1561+1</f>
         <v>391</v>
       </c>
       <c r="C1565" s="6"/>
@@ -42354,7 +37649,7 @@
     </row>
     <row r="1569" spans="2:18" ht="58.5">
       <c r="B1569" s="19">
-        <f t="shared" ref="B1569" si="178">B1565+1</f>
+        <f t="shared" ref="B1569" si="179">B1565+1</f>
         <v>392</v>
       </c>
       <c r="C1569" s="6"/>
@@ -42433,7 +37728,7 @@
     </row>
     <row r="1573" spans="2:18" ht="58.5">
       <c r="B1573" s="19">
-        <f t="shared" ref="B1573" si="179">B1569+1</f>
+        <f t="shared" ref="B1573" si="180">B1569+1</f>
         <v>393</v>
       </c>
       <c r="C1573" s="6"/>
@@ -42512,7 +37807,7 @@
     </row>
     <row r="1577" spans="2:18" ht="58.5">
       <c r="B1577" s="19">
-        <f t="shared" ref="B1577" si="180">B1573+1</f>
+        <f t="shared" ref="B1577" si="181">B1573+1</f>
         <v>394</v>
       </c>
       <c r="C1577" s="6"/>
@@ -42591,7 +37886,7 @@
     </row>
     <row r="1581" spans="2:18" ht="58.5">
       <c r="B1581" s="19">
-        <f t="shared" ref="B1581" si="181">B1577+1</f>
+        <f t="shared" ref="B1581" si="182">B1577+1</f>
         <v>395</v>
       </c>
       <c r="C1581" s="6"/>
@@ -42670,7 +37965,7 @@
     </row>
     <row r="1585" spans="2:18" ht="58.5">
       <c r="B1585" s="19">
-        <f t="shared" ref="B1585" si="182">B1581+1</f>
+        <f t="shared" ref="B1585" si="183">B1581+1</f>
         <v>396</v>
       </c>
       <c r="C1585" s="6"/>
@@ -42749,7 +38044,7 @@
     </row>
     <row r="1589" spans="2:18" ht="58.5">
       <c r="B1589" s="19">
-        <f t="shared" ref="B1589" si="183">B1585+1</f>
+        <f t="shared" ref="B1589" si="184">B1585+1</f>
         <v>397</v>
       </c>
       <c r="C1589" s="6"/>
@@ -42828,7 +38123,7 @@
     </row>
     <row r="1593" spans="2:18" ht="58.5">
       <c r="B1593" s="19">
-        <f t="shared" ref="B1593" si="184">B1589+1</f>
+        <f t="shared" ref="B1593" si="185">B1589+1</f>
         <v>398</v>
       </c>
       <c r="C1593" s="6"/>
@@ -42907,7 +38202,7 @@
     </row>
     <row r="1597" spans="2:18" ht="58.5">
       <c r="B1597" s="19">
-        <f t="shared" ref="B1597" si="185">B1593+1</f>
+        <f t="shared" ref="B1597" si="186">B1593+1</f>
         <v>399</v>
       </c>
       <c r="C1597" s="6"/>
@@ -42986,7 +38281,7 @@
     </row>
     <row r="1601" spans="2:18" ht="58.5">
       <c r="B1601" s="19">
-        <f t="shared" ref="B1601" si="186">B1597+1</f>
+        <f t="shared" ref="B1601" si="187">B1597+1</f>
         <v>400</v>
       </c>
       <c r="C1601" s="6"/>
@@ -43065,7 +38360,7 @@
     </row>
     <row r="1605" spans="2:18" ht="58.5">
       <c r="B1605" s="19">
-        <f t="shared" ref="B1605" si="187">B1601+1</f>
+        <f t="shared" ref="B1605" si="188">B1601+1</f>
         <v>401</v>
       </c>
       <c r="C1605" s="6"/>
@@ -45198,7 +40493,7 @@
     </row>
     <row r="1713" spans="2:18" ht="58.5">
       <c r="B1713" s="19">
-        <f t="shared" ref="B1713" si="188">B1709+1</f>
+        <f t="shared" ref="B1713" si="189">B1709+1</f>
         <v>428</v>
       </c>
       <c r="C1713" s="6"/>
@@ -45277,7 +40572,7 @@
     </row>
     <row r="1717" spans="2:18" ht="58.5">
       <c r="B1717" s="19">
-        <f t="shared" ref="B1717" si="189">B1713+1</f>
+        <f t="shared" ref="B1717" si="190">B1713+1</f>
         <v>429</v>
       </c>
       <c r="C1717" s="6"/>
@@ -45356,7 +40651,7 @@
     </row>
     <row r="1721" spans="2:18" ht="58.5">
       <c r="B1721" s="19">
-        <f t="shared" ref="B1721" si="190">B1717+1</f>
+        <f t="shared" ref="B1721" si="191">B1717+1</f>
         <v>430</v>
       </c>
       <c r="C1721" s="6"/>
@@ -45435,7 +40730,7 @@
     </row>
     <row r="1725" spans="2:18" ht="58.5">
       <c r="B1725" s="19">
-        <f t="shared" ref="B1725" si="191">B1721+1</f>
+        <f t="shared" ref="B1725" si="192">B1721+1</f>
         <v>431</v>
       </c>
       <c r="C1725" s="6"/>
@@ -45514,7 +40809,7 @@
     </row>
     <row r="1729" spans="2:18" ht="58.5">
       <c r="B1729" s="19">
-        <f t="shared" ref="B1729" si="192">B1725+1</f>
+        <f t="shared" ref="B1729" si="193">B1725+1</f>
         <v>432</v>
       </c>
       <c r="C1729" s="6"/>
@@ -45593,7 +40888,7 @@
     </row>
     <row r="1733" spans="2:18" ht="58.5">
       <c r="B1733" s="19">
-        <f t="shared" ref="B1733" si="193">B1729+1</f>
+        <f t="shared" ref="B1733" si="194">B1729+1</f>
         <v>433</v>
       </c>
       <c r="C1733" s="6"/>
@@ -45672,7 +40967,7 @@
     </row>
     <row r="1737" spans="2:18" ht="58.5">
       <c r="B1737" s="19">
-        <f t="shared" ref="B1737" si="194">B1733+1</f>
+        <f t="shared" ref="B1737" si="195">B1733+1</f>
         <v>434</v>
       </c>
       <c r="C1737" s="6"/>
@@ -45751,7 +41046,7 @@
     </row>
     <row r="1741" spans="2:18" ht="58.5">
       <c r="B1741" s="19">
-        <f t="shared" ref="B1741" si="195">B1737+1</f>
+        <f t="shared" ref="B1741" si="196">B1737+1</f>
         <v>435</v>
       </c>
       <c r="C1741" s="6"/>
@@ -45830,7 +41125,7 @@
     </row>
     <row r="1745" spans="2:18" ht="58.5">
       <c r="B1745" s="19">
-        <f t="shared" ref="B1745" si="196">B1741+1</f>
+        <f t="shared" ref="B1745" si="197">B1741+1</f>
         <v>436</v>
       </c>
       <c r="C1745" s="6"/>
@@ -45909,7 +41204,7 @@
     </row>
     <row r="1749" spans="2:18" ht="58.5">
       <c r="B1749" s="19">
-        <f t="shared" ref="B1749" si="197">B1745+1</f>
+        <f t="shared" ref="B1749" si="198">B1745+1</f>
         <v>437</v>
       </c>
       <c r="C1749" s="6"/>
@@ -45988,7 +41283,7 @@
     </row>
     <row r="1753" spans="2:18" ht="58.5">
       <c r="B1753" s="19">
-        <f t="shared" ref="B1753" si="198">B1749+1</f>
+        <f t="shared" ref="B1753" si="199">B1749+1</f>
         <v>438</v>
       </c>
       <c r="C1753" s="6"/>
@@ -46067,7 +41362,7 @@
     </row>
     <row r="1757" spans="2:18" ht="58.5">
       <c r="B1757" s="19">
-        <f t="shared" ref="B1757" si="199">B1753+1</f>
+        <f t="shared" ref="B1757" si="200">B1753+1</f>
         <v>439</v>
       </c>
       <c r="C1757" s="6"/>
@@ -46146,7 +41441,7 @@
     </row>
     <row r="1761" spans="2:18" ht="58.5">
       <c r="B1761" s="19">
-        <f t="shared" ref="B1761" si="200">B1757+1</f>
+        <f t="shared" ref="B1761" si="201">B1757+1</f>
         <v>440</v>
       </c>
       <c r="C1761" s="6"/>
@@ -46225,7 +41520,7 @@
     </row>
     <row r="1765" spans="2:18" ht="58.5">
       <c r="B1765" s="19">
-        <f t="shared" ref="B1765" si="201">B1761+1</f>
+        <f t="shared" ref="B1765" si="202">B1761+1</f>
         <v>441</v>
       </c>
       <c r="C1765" s="6"/>
@@ -46304,7 +41599,7 @@
     </row>
     <row r="1769" spans="2:18" ht="58.5">
       <c r="B1769" s="19">
-        <f t="shared" ref="B1769" si="202">B1765+1</f>
+        <f t="shared" ref="B1769" si="203">B1765+1</f>
         <v>442</v>
       </c>
       <c r="C1769" s="6"/>
@@ -46383,7 +41678,7 @@
     </row>
     <row r="1773" spans="2:18" ht="58.5">
       <c r="B1773" s="19">
-        <f t="shared" ref="B1773" si="203">B1769+1</f>
+        <f t="shared" ref="B1773" si="204">B1769+1</f>
         <v>443</v>
       </c>
       <c r="C1773" s="6"/>
@@ -46462,7 +41757,7 @@
     </row>
     <row r="1777" spans="2:18" ht="58.5">
       <c r="B1777" s="19">
-        <f t="shared" ref="B1777" si="204">B1773+1</f>
+        <f t="shared" ref="B1777" si="205">B1773+1</f>
         <v>444</v>
       </c>
       <c r="C1777" s="6"/>
@@ -46541,7 +41836,7 @@
     </row>
     <row r="1781" spans="2:18" ht="58.5">
       <c r="B1781" s="19">
-        <f t="shared" ref="B1781" si="205">B1777+1</f>
+        <f t="shared" ref="B1781" si="206">B1777+1</f>
         <v>445</v>
       </c>
       <c r="C1781" s="6"/>
@@ -46620,7 +41915,7 @@
     </row>
     <row r="1785" spans="2:18" ht="58.5">
       <c r="B1785" s="19">
-        <f t="shared" ref="B1785" si="206">B1781+1</f>
+        <f t="shared" ref="B1785" si="207">B1781+1</f>
         <v>446</v>
       </c>
       <c r="C1785" s="6"/>
@@ -46699,7 +41994,7 @@
     </row>
     <row r="1789" spans="2:18" ht="58.5">
       <c r="B1789" s="19">
-        <f t="shared" ref="B1789" si="207">B1785+1</f>
+        <f t="shared" ref="B1789" si="208">B1785+1</f>
         <v>447</v>
       </c>
       <c r="C1789" s="6"/>
@@ -46778,7 +42073,7 @@
     </row>
     <row r="1793" spans="2:18" ht="58.5">
       <c r="B1793" s="19">
-        <f t="shared" ref="B1793" si="208">B1789+1</f>
+        <f t="shared" ref="B1793" si="209">B1789+1</f>
         <v>448</v>
       </c>
       <c r="C1793" s="6"/>
@@ -46857,7 +42152,7 @@
     </row>
     <row r="1797" spans="2:18" ht="58.5">
       <c r="B1797" s="19">
-        <f t="shared" ref="B1797" si="209">B1793+1</f>
+        <f t="shared" ref="B1797" si="210">B1793+1</f>
         <v>449</v>
       </c>
       <c r="C1797" s="6"/>
@@ -46936,7 +42231,7 @@
     </row>
     <row r="1801" spans="2:18" ht="58.5">
       <c r="B1801" s="19">
-        <f t="shared" ref="B1801" si="210">B1797+1</f>
+        <f t="shared" ref="B1801" si="211">B1797+1</f>
         <v>450</v>
       </c>
       <c r="C1801" s="6"/>
@@ -49148,7 +44443,7 @@
     </row>
     <row r="1913" spans="2:18" ht="58.5">
       <c r="B1913" s="19">
-        <f t="shared" ref="B1913" si="211">B1909+1</f>
+        <f t="shared" ref="B1913" si="212">B1909+1</f>
         <v>478</v>
       </c>
       <c r="C1913" s="6"/>
@@ -49227,7 +44522,7 @@
     </row>
     <row r="1917" spans="2:18" ht="58.5">
       <c r="B1917" s="19">
-        <f t="shared" ref="B1917" si="212">B1913+1</f>
+        <f t="shared" ref="B1917" si="213">B1913+1</f>
         <v>479</v>
       </c>
       <c r="C1917" s="6"/>
@@ -49306,7 +44601,7 @@
     </row>
     <row r="1921" spans="2:18" ht="58.5">
       <c r="B1921" s="19">
-        <f t="shared" ref="B1921" si="213">B1917+1</f>
+        <f t="shared" ref="B1921" si="214">B1917+1</f>
         <v>480</v>
       </c>
       <c r="C1921" s="6"/>
@@ -49385,7 +44680,7 @@
     </row>
     <row r="1925" spans="2:18" ht="58.5">
       <c r="B1925" s="19">
-        <f t="shared" ref="B1925" si="214">B1921+1</f>
+        <f t="shared" ref="B1925" si="215">B1921+1</f>
         <v>481</v>
       </c>
       <c r="C1925" s="6"/>
@@ -49464,7 +44759,7 @@
     </row>
     <row r="1929" spans="2:18" ht="58.5">
       <c r="B1929" s="19">
-        <f t="shared" ref="B1929" si="215">B1925+1</f>
+        <f t="shared" ref="B1929" si="216">B1925+1</f>
         <v>482</v>
       </c>
       <c r="C1929" s="6"/>
@@ -49543,7 +44838,7 @@
     </row>
     <row r="1933" spans="2:18" ht="58.5">
       <c r="B1933" s="19">
-        <f t="shared" ref="B1933" si="216">B1929+1</f>
+        <f t="shared" ref="B1933" si="217">B1929+1</f>
         <v>483</v>
       </c>
       <c r="C1933" s="6"/>
@@ -49622,7 +44917,7 @@
     </row>
     <row r="1937" spans="2:18" ht="58.5">
       <c r="B1937" s="19">
-        <f t="shared" ref="B1937" si="217">B1933+1</f>
+        <f t="shared" ref="B1937" si="218">B1933+1</f>
         <v>484</v>
       </c>
       <c r="C1937" s="6"/>
@@ -49701,7 +44996,7 @@
     </row>
     <row r="1941" spans="2:18" ht="58.5">
       <c r="B1941" s="19">
-        <f t="shared" ref="B1941" si="218">B1937+1</f>
+        <f t="shared" ref="B1941" si="219">B1937+1</f>
         <v>485</v>
       </c>
       <c r="C1941" s="6"/>
@@ -49780,7 +45075,7 @@
     </row>
     <row r="1945" spans="2:18" ht="58.5">
       <c r="B1945" s="19">
-        <f t="shared" ref="B1945" si="219">B1941+1</f>
+        <f t="shared" ref="B1945" si="220">B1941+1</f>
         <v>486</v>
       </c>
       <c r="C1945" s="6"/>
@@ -49859,7 +45154,7 @@
     </row>
     <row r="1949" spans="2:18" ht="58.5">
       <c r="B1949" s="19">
-        <f t="shared" ref="B1949" si="220">B1945+1</f>
+        <f t="shared" ref="B1949" si="221">B1945+1</f>
         <v>487</v>
       </c>
       <c r="C1949" s="6"/>
@@ -49938,7 +45233,7 @@
     </row>
     <row r="1953" spans="2:18" ht="58.5">
       <c r="B1953" s="19">
-        <f t="shared" ref="B1953" si="221">B1949+1</f>
+        <f t="shared" ref="B1953" si="222">B1949+1</f>
         <v>488</v>
       </c>
       <c r="C1953" s="6"/>
@@ -50017,7 +45312,7 @@
     </row>
     <row r="1957" spans="2:18" ht="58.5">
       <c r="B1957" s="19">
-        <f t="shared" ref="B1957" si="222">B1953+1</f>
+        <f t="shared" ref="B1957" si="223">B1953+1</f>
         <v>489</v>
       </c>
       <c r="C1957" s="6"/>
@@ -50096,7 +45391,7 @@
     </row>
     <row r="1961" spans="2:18" ht="58.5">
       <c r="B1961" s="19">
-        <f t="shared" ref="B1961" si="223">B1957+1</f>
+        <f t="shared" ref="B1961" si="224">B1957+1</f>
         <v>490</v>
       </c>
       <c r="C1961" s="6"/>
@@ -50175,7 +45470,7 @@
     </row>
     <row r="1965" spans="2:18" ht="58.5">
       <c r="B1965" s="19">
-        <f t="shared" ref="B1965" si="224">B1961+1</f>
+        <f t="shared" ref="B1965" si="225">B1961+1</f>
         <v>491</v>
       </c>
       <c r="C1965" s="6"/>
@@ -50254,7 +45549,7 @@
     </row>
     <row r="1969" spans="2:18" ht="58.5">
       <c r="B1969" s="19">
-        <f t="shared" ref="B1969" si="225">B1965+1</f>
+        <f t="shared" ref="B1969" si="226">B1965+1</f>
         <v>492</v>
       </c>
       <c r="C1969" s="6"/>
@@ -50333,7 +45628,7 @@
     </row>
     <row r="1973" spans="2:18" ht="58.5">
       <c r="B1973" s="19">
-        <f t="shared" ref="B1973" si="226">B1969+1</f>
+        <f t="shared" ref="B1973" si="227">B1969+1</f>
         <v>493</v>
       </c>
       <c r="C1973" s="6"/>
@@ -50412,7 +45707,7 @@
     </row>
     <row r="1977" spans="2:18" ht="58.5">
       <c r="B1977" s="19">
-        <f t="shared" ref="B1977" si="227">B1973+1</f>
+        <f t="shared" ref="B1977" si="228">B1973+1</f>
         <v>494</v>
       </c>
       <c r="C1977" s="6"/>
@@ -50491,7 +45786,7 @@
     </row>
     <row r="1981" spans="2:18" ht="58.5">
       <c r="B1981" s="19">
-        <f t="shared" ref="B1981" si="228">B1977+1</f>
+        <f t="shared" ref="B1981" si="229">B1977+1</f>
         <v>495</v>
       </c>
       <c r="C1981" s="6"/>
@@ -50570,7 +45865,7 @@
     </row>
     <row r="1985" spans="2:18" ht="58.5">
       <c r="B1985" s="19">
-        <f t="shared" ref="B1985" si="229">B1981+1</f>
+        <f t="shared" ref="B1985" si="230">B1981+1</f>
         <v>496</v>
       </c>
       <c r="C1985" s="6"/>
@@ -50649,7 +45944,7 @@
     </row>
     <row r="1989" spans="2:18" ht="58.5">
       <c r="B1989" s="19">
-        <f t="shared" ref="B1989" si="230">B1985+1</f>
+        <f t="shared" ref="B1989" si="231">B1985+1</f>
         <v>497</v>
       </c>
       <c r="C1989" s="6"/>
@@ -50728,7 +46023,7 @@
     </row>
     <row r="1993" spans="2:18" ht="58.5">
       <c r="B1993" s="19">
-        <f t="shared" ref="B1993" si="231">B1989+1</f>
+        <f t="shared" ref="B1993" si="232">B1989+1</f>
         <v>498</v>
       </c>
       <c r="C1993" s="6"/>
@@ -50807,7 +46102,7 @@
     </row>
     <row r="1997" spans="2:18" ht="58.5">
       <c r="B1997" s="19">
-        <f t="shared" ref="B1997" si="232">B1993+1</f>
+        <f t="shared" ref="B1997" si="233">B1993+1</f>
         <v>499</v>
       </c>
       <c r="C1997" s="6"/>
@@ -50886,7 +46181,7 @@
     </row>
     <row r="2001" spans="2:18" ht="58.5">
       <c r="B2001" s="19">
-        <f t="shared" ref="B2001" si="233">B1997+1</f>
+        <f t="shared" ref="B2001" si="234">B1997+1</f>
         <v>500</v>
       </c>
       <c r="C2001" s="6"/>
@@ -51127,7 +46422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -51296,7 +46591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -55359,7 +50654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
